--- a/data/fitness_development/MFE_pupae.xlsx
+++ b/data/fitness_development/MFE_pupae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster/data/fitness_development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F357DD02-9D71-1A44-81D2-4CC95E88A9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABA6EEA5-1D27-724C-90D4-AC1C821C3DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C4676CD7-2E49-4B49-A091-3E192C473528}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="6">
   <si>
     <t>vial</t>
   </si>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C1B781-7514-9640-96DE-98CFCBD1D8E4}">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="93" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1701,6 +1701,840 @@
         <v>0</v>
       </c>
     </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>196</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>196</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>196</v>
+      </c>
+      <c r="D94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>196</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>196</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>196</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>196</v>
+      </c>
+      <c r="D98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>196</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>196</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>196</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>196</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>196</v>
+      </c>
+      <c r="D103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>7</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>196</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <v>196</v>
+      </c>
+      <c r="D105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>196</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>196</v>
+      </c>
+      <c r="D107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>196</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109">
+        <v>196</v>
+      </c>
+      <c r="D109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>10</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>196</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>10</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111">
+        <v>196</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>11</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>196</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>11</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>196</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>12</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>196</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>12</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>196</v>
+      </c>
+      <c r="D115">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>13</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>196</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>13</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>196</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>15</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>196</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>196</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>15</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>15</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121">
+        <v>196</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>212</v>
+      </c>
+      <c r="D122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123">
+        <v>212</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>212</v>
+      </c>
+      <c r="D124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125">
+        <v>212</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>3</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>212</v>
+      </c>
+      <c r="D126">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>3</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127">
+        <v>212</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>4</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>212</v>
+      </c>
+      <c r="D128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>4</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129">
+        <v>212</v>
+      </c>
+      <c r="D129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>5</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>212</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>5</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>212</v>
+      </c>
+      <c r="D131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>6</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>212</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>6</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>212</v>
+      </c>
+      <c r="D133">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>7</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>212</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>7</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <v>212</v>
+      </c>
+      <c r="D135">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>8</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>212</v>
+      </c>
+      <c r="D136">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>8</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>212</v>
+      </c>
+      <c r="D137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>9</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <v>212</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>9</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139">
+        <v>212</v>
+      </c>
+      <c r="D139">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>10</v>
+      </c>
+      <c r="B140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140">
+        <v>212</v>
+      </c>
+      <c r="D140">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>10</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141">
+        <v>212</v>
+      </c>
+      <c r="D141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>11</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142">
+        <v>212</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>11</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143">
+        <v>212</v>
+      </c>
+      <c r="D143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>12</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144">
+        <v>212</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>12</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145">
+        <v>212</v>
+      </c>
+      <c r="D145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>13</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>212</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>13</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>212</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>15</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>212</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>14</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149">
+        <v>212</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>15</v>
+      </c>
+      <c r="B150" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>15</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151">
+        <v>212</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fitness_development/MFE_pupae.xlsx
+++ b/data/fitness_development/MFE_pupae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster/data/fitness_development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABA6EEA5-1D27-724C-90D4-AC1C821C3DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92A639E-90DA-C54E-B64C-E5EC72B69203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C4676CD7-2E49-4B49-A091-3E192C473528}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="6">
   <si>
     <t>vial</t>
   </si>
@@ -89,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C1B781-7514-9640-96DE-98CFCBD1D8E4}">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="93" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -816,7 +817,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -847,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>165</v>
       </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -872,27 +876,27 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32">
         <v>173</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33">
         <v>173</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -900,21 +904,21 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34">
         <v>173</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35">
         <v>173</v>
@@ -928,7 +932,7 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36">
         <v>173</v>
@@ -939,16 +943,16 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37">
         <v>173</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -956,21 +960,21 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>173</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39">
         <v>173</v>
@@ -984,7 +988,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>173</v>
@@ -995,10 +999,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41">
         <v>173</v>
@@ -1012,7 +1016,7 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <v>173</v>
@@ -1023,10 +1027,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43">
         <v>173</v>
@@ -1040,7 +1044,7 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44">
         <v>173</v>
@@ -1051,10 +1055,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45">
         <v>173</v>
@@ -1068,7 +1072,7 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46">
         <v>173</v>
@@ -1079,10 +1083,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47">
         <v>173</v>
@@ -1096,27 +1100,27 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C48">
         <v>173</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49">
         <v>173</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1124,27 +1128,27 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C50">
         <v>173</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51">
         <v>173</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1152,27 +1156,27 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C52">
         <v>173</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53">
         <v>173</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1180,27 +1184,27 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C54">
         <v>173</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55">
         <v>173</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1208,7 +1212,7 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C56">
         <v>173</v>
@@ -1219,10 +1223,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57">
         <v>173</v>
@@ -1233,10 +1237,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C58">
         <v>173</v>
@@ -1247,7 +1251,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -1261,24 +1265,27 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
       </c>
       <c r="C60">
-        <v>173</v>
+        <v>188</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
       </c>
       <c r="C61">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1286,7 +1293,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
@@ -1295,12 +1302,12 @@
         <v>188</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
@@ -1314,7 +1321,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
@@ -1323,12 +1330,12 @@
         <v>188</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -1342,7 +1349,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
@@ -1351,12 +1358,12 @@
         <v>188</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -1370,7 +1377,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
@@ -1379,12 +1386,12 @@
         <v>188</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -1393,12 +1400,12 @@
         <v>188</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
@@ -1407,12 +1414,12 @@
         <v>188</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -1426,7 +1433,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
@@ -1435,12 +1442,12 @@
         <v>188</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -1449,12 +1456,12 @@
         <v>188</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
@@ -1468,7 +1475,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -1477,12 +1484,12 @@
         <v>188</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
@@ -1496,7 +1503,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -1505,12 +1512,12 @@
         <v>188</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
         <v>4</v>
@@ -1524,7 +1531,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -1533,12 +1540,12 @@
         <v>188</v>
       </c>
       <c r="D79">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
@@ -1547,12 +1554,12 @@
         <v>188</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
@@ -1561,12 +1568,12 @@
         <v>188</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
@@ -1575,12 +1582,12 @@
         <v>188</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -1589,12 +1596,12 @@
         <v>188</v>
       </c>
       <c r="D83">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
@@ -1608,7 +1615,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -1617,12 +1624,12 @@
         <v>188</v>
       </c>
       <c r="D85">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
@@ -1631,12 +1638,12 @@
         <v>188</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
@@ -1645,7 +1652,7 @@
         <v>188</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -1653,130 +1660,133 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C88">
         <v>188</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C89">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C90">
-        <v>188</v>
+        <v>196</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C91">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C92">
         <v>196</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C93">
         <v>196</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C94">
         <v>196</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C95">
         <v>196</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C96">
         <v>196</v>
       </c>
       <c r="D96">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C97">
         <v>196</v>
@@ -1787,52 +1797,52 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C98">
         <v>196</v>
       </c>
       <c r="D98">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99">
         <v>196</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C100">
         <v>196</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C101">
         <v>196</v>
@@ -1843,136 +1853,136 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C102">
         <v>196</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C103">
         <v>196</v>
       </c>
       <c r="D103">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C104">
         <v>196</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C105">
         <v>196</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C106">
         <v>196</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C107">
         <v>196</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C108">
         <v>196</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C109">
         <v>196</v>
       </c>
       <c r="D109">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C110">
         <v>196</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C111">
         <v>196</v>
@@ -1983,77 +1993,77 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C112">
         <v>196</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C113">
         <v>196</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C114">
         <v>196</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>12</v>
+      <c r="A115" s="1">
+        <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C115">
         <v>196</v>
       </c>
       <c r="D115">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C116">
         <v>196</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
@@ -2062,32 +2072,32 @@
         <v>196</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B118" t="s">
         <v>4</v>
       </c>
       <c r="C118">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
       </c>
       <c r="C119">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -2095,24 +2105,27 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B120" t="s">
         <v>4</v>
       </c>
       <c r="C120">
-        <v>196</v>
+        <v>212</v>
+      </c>
+      <c r="D120">
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
       </c>
       <c r="C121">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -2120,7 +2133,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B122" t="s">
         <v>4</v>
@@ -2129,12 +2142,12 @@
         <v>212</v>
       </c>
       <c r="D122">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -2143,12 +2156,12 @@
         <v>212</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B124" t="s">
         <v>4</v>
@@ -2157,12 +2170,12 @@
         <v>212</v>
       </c>
       <c r="D124">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -2171,12 +2184,12 @@
         <v>212</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B126" t="s">
         <v>4</v>
@@ -2185,12 +2198,12 @@
         <v>212</v>
       </c>
       <c r="D126">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
@@ -2199,12 +2212,12 @@
         <v>212</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B128" t="s">
         <v>4</v>
@@ -2213,12 +2226,12 @@
         <v>212</v>
       </c>
       <c r="D128">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
@@ -2227,12 +2240,12 @@
         <v>212</v>
       </c>
       <c r="D129">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B130" t="s">
         <v>4</v>
@@ -2241,12 +2254,12 @@
         <v>212</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
@@ -2255,12 +2268,12 @@
         <v>212</v>
       </c>
       <c r="D131">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B132" t="s">
         <v>4</v>
@@ -2269,12 +2282,12 @@
         <v>212</v>
       </c>
       <c r="D132">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -2283,12 +2296,12 @@
         <v>212</v>
       </c>
       <c r="D133">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B134" t="s">
         <v>4</v>
@@ -2297,12 +2310,12 @@
         <v>212</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -2311,12 +2324,12 @@
         <v>212</v>
       </c>
       <c r="D135">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B136" t="s">
         <v>4</v>
@@ -2325,12 +2338,12 @@
         <v>212</v>
       </c>
       <c r="D136">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -2344,7 +2357,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B138" t="s">
         <v>4</v>
@@ -2353,12 +2366,12 @@
         <v>212</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
@@ -2367,12 +2380,12 @@
         <v>212</v>
       </c>
       <c r="D139">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B140" t="s">
         <v>4</v>
@@ -2381,12 +2394,12 @@
         <v>212</v>
       </c>
       <c r="D140">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
@@ -2400,7 +2413,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B142" t="s">
         <v>4</v>
@@ -2409,12 +2422,12 @@
         <v>212</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
@@ -2423,12 +2436,12 @@
         <v>212</v>
       </c>
       <c r="D143">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B144" t="s">
         <v>4</v>
@@ -2442,7 +2455,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -2451,15 +2464,15 @@
         <v>212</v>
       </c>
       <c r="D145">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B146" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C146">
         <v>212</v>
@@ -2470,69 +2483,814 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C147">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B148" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C148">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C149">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B150" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C150">
-        <v>212</v>
+        <v>221</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
+        <v>3</v>
+      </c>
+      <c r="B151" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151">
+        <v>221</v>
+      </c>
+      <c r="D151">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>3</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152">
+        <v>221</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>4</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153">
+        <v>221</v>
+      </c>
+      <c r="D153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>4</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154">
+        <v>221</v>
+      </c>
+      <c r="D154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>5</v>
+      </c>
+      <c r="B155" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155">
+        <v>221</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>5</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156">
+        <v>221</v>
+      </c>
+      <c r="D156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>6</v>
+      </c>
+      <c r="B157" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>221</v>
+      </c>
+      <c r="D157">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>6</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158">
+        <v>221</v>
+      </c>
+      <c r="D158">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159">
+        <v>221</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160">
+        <v>221</v>
+      </c>
+      <c r="D160">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>8</v>
+      </c>
+      <c r="B161" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161">
+        <v>221</v>
+      </c>
+      <c r="D161">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>8</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162">
+        <v>221</v>
+      </c>
+      <c r="D162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>9</v>
+      </c>
+      <c r="B163" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163">
+        <v>221</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>9</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164">
+        <v>221</v>
+      </c>
+      <c r="D164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>10</v>
+      </c>
+      <c r="B165" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <v>221</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>10</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166">
+        <v>221</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>11</v>
+      </c>
+      <c r="B167" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167">
+        <v>221</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>11</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168">
+        <v>221</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>12</v>
+      </c>
+      <c r="B169" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169">
+        <v>221</v>
+      </c>
+      <c r="D169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>12</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170">
+        <v>221</v>
+      </c>
+      <c r="D170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>13</v>
+      </c>
+      <c r="B171" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171">
+        <v>221</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>13</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172">
+        <v>221</v>
+      </c>
+      <c r="D172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>14</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173">
+        <v>221</v>
+      </c>
+      <c r="D173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>14</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174">
+        <v>221</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175">
         <v>15</v>
       </c>
-      <c r="B151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C151">
-        <v>212</v>
-      </c>
-      <c r="D151">
-        <v>0</v>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175">
+        <v>221</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="B176" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176">
+        <v>236</v>
+      </c>
+      <c r="D176">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177">
+        <v>236</v>
+      </c>
+      <c r="D177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>2</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>236</v>
+      </c>
+      <c r="D178">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>2</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179">
+        <v>236</v>
+      </c>
+      <c r="D179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>3</v>
+      </c>
+      <c r="B180" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <v>236</v>
+      </c>
+      <c r="D180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>3</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181">
+        <v>236</v>
+      </c>
+      <c r="D181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>4</v>
+      </c>
+      <c r="B182" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182">
+        <v>236</v>
+      </c>
+      <c r="D182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>4</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183">
+        <v>236</v>
+      </c>
+      <c r="D183">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>5</v>
+      </c>
+      <c r="B184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184">
+        <v>236</v>
+      </c>
+      <c r="D184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>5</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185">
+        <v>236</v>
+      </c>
+      <c r="D185">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>6</v>
+      </c>
+      <c r="B186" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186">
+        <v>236</v>
+      </c>
+      <c r="D186">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>6</v>
+      </c>
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187">
+        <v>236</v>
+      </c>
+      <c r="D187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>7</v>
+      </c>
+      <c r="B188" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188">
+        <v>236</v>
+      </c>
+      <c r="D188">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>7</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189">
+        <v>236</v>
+      </c>
+      <c r="D189">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>8</v>
+      </c>
+      <c r="B190" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190">
+        <v>236</v>
+      </c>
+      <c r="D190">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>8</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191">
+        <v>236</v>
+      </c>
+      <c r="D191">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>9</v>
+      </c>
+      <c r="B192" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192">
+        <v>236</v>
+      </c>
+      <c r="D192">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>9</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193">
+        <v>236</v>
+      </c>
+      <c r="D193">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>10</v>
+      </c>
+      <c r="B194" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194">
+        <v>236</v>
+      </c>
+      <c r="D194">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>10</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195">
+        <v>236</v>
+      </c>
+      <c r="D195">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>11</v>
+      </c>
+      <c r="B196" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196">
+        <v>236</v>
+      </c>
+      <c r="D196">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>11</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197">
+        <v>236</v>
+      </c>
+      <c r="D197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>12</v>
+      </c>
+      <c r="B198" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198">
+        <v>236</v>
+      </c>
+      <c r="D198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>12</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199">
+        <v>236</v>
+      </c>
+      <c r="D199">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>13</v>
+      </c>
+      <c r="B200" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200">
+        <v>236</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>13</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201">
+        <v>236</v>
+      </c>
+      <c r="D201">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>14</v>
+      </c>
+      <c r="B202" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202">
+        <v>236</v>
+      </c>
+      <c r="D202">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>14</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203">
+        <v>236</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>15</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204">
+        <v>236</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/fitness_development/MFE_pupae.xlsx
+++ b/data/fitness_development/MFE_pupae.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster/data/fitness_development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_17/data/fitness_development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92A639E-90DA-C54E-B64C-E5EC72B69203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB1EA14F-7B5D-AA42-96E1-5692AFD81E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C4676CD7-2E49-4B49-A091-3E192C473528}"/>
+    <workbookView xWindow="1200" yWindow="540" windowWidth="28800" windowHeight="16100" xr2:uid="{C4676CD7-2E49-4B49-A091-3E192C473528}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="6">
   <si>
     <t>vial</t>
   </si>
@@ -89,9 +89,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C1B781-7514-9640-96DE-98CFCBD1D8E4}">
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D262"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="D261" sqref="D261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2034,7 +2033,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
+      <c r="A115">
         <v>14</v>
       </c>
       <c r="B115" t="s">
@@ -3291,6 +3290,812 @@
       </c>
       <c r="D204">
         <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>1</v>
+      </c>
+      <c r="B205" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205">
+        <v>245</v>
+      </c>
+      <c r="D205">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206">
+        <v>245</v>
+      </c>
+      <c r="D206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>2</v>
+      </c>
+      <c r="B207" t="s">
+        <v>4</v>
+      </c>
+      <c r="C207">
+        <v>245</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>2</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208">
+        <v>245</v>
+      </c>
+      <c r="D208">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>3</v>
+      </c>
+      <c r="B209" t="s">
+        <v>4</v>
+      </c>
+      <c r="C209">
+        <v>245</v>
+      </c>
+      <c r="D209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>3</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210">
+        <v>245</v>
+      </c>
+      <c r="D210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>4</v>
+      </c>
+      <c r="B211" t="s">
+        <v>4</v>
+      </c>
+      <c r="C211">
+        <v>245</v>
+      </c>
+      <c r="D211">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>4</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212">
+        <v>245</v>
+      </c>
+      <c r="D212">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>5</v>
+      </c>
+      <c r="B213" t="s">
+        <v>4</v>
+      </c>
+      <c r="C213">
+        <v>245</v>
+      </c>
+      <c r="D213">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>5</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214">
+        <v>245</v>
+      </c>
+      <c r="D214">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>6</v>
+      </c>
+      <c r="B215" t="s">
+        <v>4</v>
+      </c>
+      <c r="C215">
+        <v>245</v>
+      </c>
+      <c r="D215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>6</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216">
+        <v>245</v>
+      </c>
+      <c r="D216">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>7</v>
+      </c>
+      <c r="B217" t="s">
+        <v>4</v>
+      </c>
+      <c r="C217">
+        <v>245</v>
+      </c>
+      <c r="D217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>7</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218">
+        <v>245</v>
+      </c>
+      <c r="D218">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>8</v>
+      </c>
+      <c r="B219" t="s">
+        <v>4</v>
+      </c>
+      <c r="C219">
+        <v>245</v>
+      </c>
+      <c r="D219">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>8</v>
+      </c>
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220">
+        <v>245</v>
+      </c>
+      <c r="D220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>9</v>
+      </c>
+      <c r="B221" t="s">
+        <v>4</v>
+      </c>
+      <c r="C221">
+        <v>245</v>
+      </c>
+      <c r="D221">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>9</v>
+      </c>
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222">
+        <v>245</v>
+      </c>
+      <c r="D222">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>10</v>
+      </c>
+      <c r="B223" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223">
+        <v>245</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>10</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224">
+        <v>245</v>
+      </c>
+      <c r="D224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>11</v>
+      </c>
+      <c r="B225" t="s">
+        <v>4</v>
+      </c>
+      <c r="C225">
+        <v>245</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>11</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226">
+        <v>245</v>
+      </c>
+      <c r="D226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>12</v>
+      </c>
+      <c r="B227" t="s">
+        <v>4</v>
+      </c>
+      <c r="C227">
+        <v>245</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>12</v>
+      </c>
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228">
+        <v>245</v>
+      </c>
+      <c r="D228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>13</v>
+      </c>
+      <c r="B229" t="s">
+        <v>4</v>
+      </c>
+      <c r="C229">
+        <v>245</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>13</v>
+      </c>
+      <c r="B230" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230">
+        <v>245</v>
+      </c>
+      <c r="D230">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>14</v>
+      </c>
+      <c r="B231" t="s">
+        <v>4</v>
+      </c>
+      <c r="C231">
+        <v>245</v>
+      </c>
+      <c r="D231">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>14</v>
+      </c>
+      <c r="B232" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232">
+        <v>245</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>15</v>
+      </c>
+      <c r="B233" t="s">
+        <v>5</v>
+      </c>
+      <c r="C233">
+        <v>245</v>
+      </c>
+      <c r="D233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>1</v>
+      </c>
+      <c r="B234" t="s">
+        <v>4</v>
+      </c>
+      <c r="C234">
+        <v>260</v>
+      </c>
+      <c r="D234">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="B235" t="s">
+        <v>5</v>
+      </c>
+      <c r="C235">
+        <v>260</v>
+      </c>
+      <c r="D235">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>2</v>
+      </c>
+      <c r="B236" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236">
+        <v>260</v>
+      </c>
+      <c r="D236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>2</v>
+      </c>
+      <c r="B237" t="s">
+        <v>5</v>
+      </c>
+      <c r="C237">
+        <v>260</v>
+      </c>
+      <c r="D237">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>3</v>
+      </c>
+      <c r="B238" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238">
+        <v>260</v>
+      </c>
+      <c r="D238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>3</v>
+      </c>
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239">
+        <v>260</v>
+      </c>
+      <c r="D239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>4</v>
+      </c>
+      <c r="B240" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240">
+        <v>260</v>
+      </c>
+      <c r="D240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>4</v>
+      </c>
+      <c r="B241" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241">
+        <v>260</v>
+      </c>
+      <c r="D241">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>5</v>
+      </c>
+      <c r="B242" t="s">
+        <v>4</v>
+      </c>
+      <c r="C242">
+        <v>260</v>
+      </c>
+      <c r="D242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>5</v>
+      </c>
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243">
+        <v>260</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>6</v>
+      </c>
+      <c r="B244" t="s">
+        <v>4</v>
+      </c>
+      <c r="C244">
+        <v>260</v>
+      </c>
+      <c r="D244">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>6</v>
+      </c>
+      <c r="B245" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245">
+        <v>260</v>
+      </c>
+      <c r="D245">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>7</v>
+      </c>
+      <c r="B246" t="s">
+        <v>4</v>
+      </c>
+      <c r="C246">
+        <v>260</v>
+      </c>
+      <c r="D246">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>7</v>
+      </c>
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247">
+        <v>260</v>
+      </c>
+      <c r="D247">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>8</v>
+      </c>
+      <c r="B248" t="s">
+        <v>4</v>
+      </c>
+      <c r="C248">
+        <v>260</v>
+      </c>
+      <c r="D248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>8</v>
+      </c>
+      <c r="B249" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249">
+        <v>260</v>
+      </c>
+      <c r="D249">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>9</v>
+      </c>
+      <c r="B250" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250">
+        <v>260</v>
+      </c>
+      <c r="D250">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>9</v>
+      </c>
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251">
+        <v>260</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>10</v>
+      </c>
+      <c r="B252" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252">
+        <v>260</v>
+      </c>
+      <c r="D252">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>10</v>
+      </c>
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253">
+        <v>260</v>
+      </c>
+      <c r="D253">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>11</v>
+      </c>
+      <c r="B254" t="s">
+        <v>4</v>
+      </c>
+      <c r="C254">
+        <v>260</v>
+      </c>
+      <c r="D254">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>11</v>
+      </c>
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255">
+        <v>260</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>12</v>
+      </c>
+      <c r="B256" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256">
+        <v>260</v>
+      </c>
+      <c r="D256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>12</v>
+      </c>
+      <c r="B257" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257">
+        <v>260</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>13</v>
+      </c>
+      <c r="B258" t="s">
+        <v>4</v>
+      </c>
+      <c r="C258">
+        <v>260</v>
+      </c>
+      <c r="D258">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>13</v>
+      </c>
+      <c r="B259" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259">
+        <v>260</v>
+      </c>
+      <c r="D259">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>14</v>
+      </c>
+      <c r="B260" t="s">
+        <v>4</v>
+      </c>
+      <c r="C260">
+        <v>260</v>
+      </c>
+      <c r="D260">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>14</v>
+      </c>
+      <c r="B261" t="s">
+        <v>5</v>
+      </c>
+      <c r="C261">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>15</v>
+      </c>
+      <c r="B262" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/data/fitness_development/MFE_pupae.xlsx
+++ b/data/fitness_development/MFE_pupae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_17/data/fitness_development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB1EA14F-7B5D-AA42-96E1-5692AFD81E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C26CC21-80CE-3245-885F-1BB22C017F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="540" windowWidth="28800" windowHeight="16100" xr2:uid="{C4676CD7-2E49-4B49-A091-3E192C473528}"/>
   </bookViews>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C1B781-7514-9640-96DE-98CFCBD1D8E4}">
   <dimension ref="A1:D262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="D261" sqref="D261"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="E259" sqref="E259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4086,6 +4086,9 @@
       <c r="C261">
         <v>260</v>
       </c>
+      <c r="D261">
+        <v>5</v>
+      </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262">
@@ -4096,6 +4099,9 @@
       </c>
       <c r="C262">
         <v>260</v>
+      </c>
+      <c r="D262">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/fitness_development/MFE_pupae.xlsx
+++ b/data/fitness_development/MFE_pupae.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_17/data/fitness_development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_18/data/fitness_development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C26CC21-80CE-3245-885F-1BB22C017F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DD8F7B3-9C74-054A-A73B-F7E3FADEB12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="540" windowWidth="28800" windowHeight="16100" xr2:uid="{C4676CD7-2E49-4B49-A091-3E192C473528}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{C4676CD7-2E49-4B49-A091-3E192C473528}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="6">
   <si>
     <t>vial</t>
   </si>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C1B781-7514-9640-96DE-98CFCBD1D8E4}">
-  <dimension ref="A1:D262"/>
+  <dimension ref="A1:D378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="E259" sqref="E259"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="D379" sqref="D379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4104,6 +4104,1631 @@
         <v>4</v>
       </c>
     </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>1</v>
+      </c>
+      <c r="B263" t="s">
+        <v>4</v>
+      </c>
+      <c r="C263">
+        <v>269</v>
+      </c>
+      <c r="D263">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>1</v>
+      </c>
+      <c r="B264" t="s">
+        <v>5</v>
+      </c>
+      <c r="C264">
+        <v>269</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>2</v>
+      </c>
+      <c r="B265" t="s">
+        <v>4</v>
+      </c>
+      <c r="C265">
+        <v>269</v>
+      </c>
+      <c r="D265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>2</v>
+      </c>
+      <c r="B266" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266">
+        <v>269</v>
+      </c>
+      <c r="D266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>3</v>
+      </c>
+      <c r="B267" t="s">
+        <v>4</v>
+      </c>
+      <c r="C267">
+        <v>269</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>3</v>
+      </c>
+      <c r="B268" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268">
+        <v>269</v>
+      </c>
+      <c r="D268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>4</v>
+      </c>
+      <c r="B269" t="s">
+        <v>4</v>
+      </c>
+      <c r="C269">
+        <v>269</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>4</v>
+      </c>
+      <c r="B270" t="s">
+        <v>5</v>
+      </c>
+      <c r="C270">
+        <v>269</v>
+      </c>
+      <c r="D270">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>5</v>
+      </c>
+      <c r="B271" t="s">
+        <v>4</v>
+      </c>
+      <c r="C271">
+        <v>269</v>
+      </c>
+      <c r="D271">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>5</v>
+      </c>
+      <c r="B272" t="s">
+        <v>5</v>
+      </c>
+      <c r="C272">
+        <v>269</v>
+      </c>
+      <c r="D272">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>6</v>
+      </c>
+      <c r="B273" t="s">
+        <v>4</v>
+      </c>
+      <c r="C273">
+        <v>269</v>
+      </c>
+      <c r="D273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>6</v>
+      </c>
+      <c r="B274" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274">
+        <v>269</v>
+      </c>
+      <c r="D274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>7</v>
+      </c>
+      <c r="B275" t="s">
+        <v>4</v>
+      </c>
+      <c r="C275">
+        <v>269</v>
+      </c>
+      <c r="D275">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>7</v>
+      </c>
+      <c r="B276" t="s">
+        <v>5</v>
+      </c>
+      <c r="C276">
+        <v>269</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>8</v>
+      </c>
+      <c r="B277" t="s">
+        <v>4</v>
+      </c>
+      <c r="C277">
+        <v>269</v>
+      </c>
+      <c r="D277">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>8</v>
+      </c>
+      <c r="B278" t="s">
+        <v>5</v>
+      </c>
+      <c r="C278">
+        <v>269</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>9</v>
+      </c>
+      <c r="B279" t="s">
+        <v>4</v>
+      </c>
+      <c r="C279">
+        <v>269</v>
+      </c>
+      <c r="D279">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>9</v>
+      </c>
+      <c r="B280" t="s">
+        <v>5</v>
+      </c>
+      <c r="C280">
+        <v>269</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>10</v>
+      </c>
+      <c r="B281" t="s">
+        <v>4</v>
+      </c>
+      <c r="C281">
+        <v>269</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>10</v>
+      </c>
+      <c r="B282" t="s">
+        <v>5</v>
+      </c>
+      <c r="C282">
+        <v>269</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>11</v>
+      </c>
+      <c r="B283" t="s">
+        <v>4</v>
+      </c>
+      <c r="C283">
+        <v>269</v>
+      </c>
+      <c r="D283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>11</v>
+      </c>
+      <c r="B284" t="s">
+        <v>5</v>
+      </c>
+      <c r="C284">
+        <v>269</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>12</v>
+      </c>
+      <c r="B285" t="s">
+        <v>4</v>
+      </c>
+      <c r="C285">
+        <v>269</v>
+      </c>
+      <c r="D285">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>12</v>
+      </c>
+      <c r="B286" t="s">
+        <v>5</v>
+      </c>
+      <c r="C286">
+        <v>269</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>13</v>
+      </c>
+      <c r="B287" t="s">
+        <v>4</v>
+      </c>
+      <c r="C287">
+        <v>269</v>
+      </c>
+      <c r="D287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>13</v>
+      </c>
+      <c r="B288" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288">
+        <v>269</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>14</v>
+      </c>
+      <c r="B289" t="s">
+        <v>4</v>
+      </c>
+      <c r="C289">
+        <v>269</v>
+      </c>
+      <c r="D289">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>14</v>
+      </c>
+      <c r="B290" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290">
+        <v>269</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>15</v>
+      </c>
+      <c r="B291" t="s">
+        <v>5</v>
+      </c>
+      <c r="C291">
+        <v>269</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>1</v>
+      </c>
+      <c r="B292" t="s">
+        <v>4</v>
+      </c>
+      <c r="C292">
+        <v>285</v>
+      </c>
+      <c r="D292">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>1</v>
+      </c>
+      <c r="B293" t="s">
+        <v>5</v>
+      </c>
+      <c r="C293">
+        <v>285</v>
+      </c>
+      <c r="D293">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>2</v>
+      </c>
+      <c r="B294" t="s">
+        <v>4</v>
+      </c>
+      <c r="C294">
+        <v>285</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>2</v>
+      </c>
+      <c r="B295" t="s">
+        <v>5</v>
+      </c>
+      <c r="C295">
+        <v>285</v>
+      </c>
+      <c r="D295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>3</v>
+      </c>
+      <c r="B296" t="s">
+        <v>4</v>
+      </c>
+      <c r="C296">
+        <v>285</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>3</v>
+      </c>
+      <c r="B297" t="s">
+        <v>5</v>
+      </c>
+      <c r="C297">
+        <v>285</v>
+      </c>
+      <c r="D297">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>4</v>
+      </c>
+      <c r="B298" t="s">
+        <v>4</v>
+      </c>
+      <c r="C298">
+        <v>285</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>4</v>
+      </c>
+      <c r="B299" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299">
+        <v>285</v>
+      </c>
+      <c r="D299">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>5</v>
+      </c>
+      <c r="B300" t="s">
+        <v>4</v>
+      </c>
+      <c r="C300">
+        <v>285</v>
+      </c>
+      <c r="D300">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>5</v>
+      </c>
+      <c r="B301" t="s">
+        <v>5</v>
+      </c>
+      <c r="C301">
+        <v>285</v>
+      </c>
+      <c r="D301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>6</v>
+      </c>
+      <c r="B302" t="s">
+        <v>4</v>
+      </c>
+      <c r="C302">
+        <v>285</v>
+      </c>
+      <c r="D302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>6</v>
+      </c>
+      <c r="B303" t="s">
+        <v>5</v>
+      </c>
+      <c r="C303">
+        <v>285</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>7</v>
+      </c>
+      <c r="B304" t="s">
+        <v>4</v>
+      </c>
+      <c r="C304">
+        <v>285</v>
+      </c>
+      <c r="D304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>7</v>
+      </c>
+      <c r="B305" t="s">
+        <v>5</v>
+      </c>
+      <c r="C305">
+        <v>285</v>
+      </c>
+      <c r="D305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>8</v>
+      </c>
+      <c r="B306" t="s">
+        <v>4</v>
+      </c>
+      <c r="C306">
+        <v>285</v>
+      </c>
+      <c r="D306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>8</v>
+      </c>
+      <c r="B307" t="s">
+        <v>5</v>
+      </c>
+      <c r="C307">
+        <v>285</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>9</v>
+      </c>
+      <c r="B308" t="s">
+        <v>4</v>
+      </c>
+      <c r="C308">
+        <v>285</v>
+      </c>
+      <c r="D308">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>9</v>
+      </c>
+      <c r="B309" t="s">
+        <v>5</v>
+      </c>
+      <c r="C309">
+        <v>285</v>
+      </c>
+      <c r="D309">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>10</v>
+      </c>
+      <c r="B310" t="s">
+        <v>4</v>
+      </c>
+      <c r="C310">
+        <v>285</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>10</v>
+      </c>
+      <c r="B311" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311">
+        <v>285</v>
+      </c>
+      <c r="D311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>11</v>
+      </c>
+      <c r="B312" t="s">
+        <v>4</v>
+      </c>
+      <c r="C312">
+        <v>285</v>
+      </c>
+      <c r="D312">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>11</v>
+      </c>
+      <c r="B313" t="s">
+        <v>5</v>
+      </c>
+      <c r="C313">
+        <v>285</v>
+      </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>12</v>
+      </c>
+      <c r="B314" t="s">
+        <v>4</v>
+      </c>
+      <c r="C314">
+        <v>285</v>
+      </c>
+      <c r="D314">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>12</v>
+      </c>
+      <c r="B315" t="s">
+        <v>5</v>
+      </c>
+      <c r="C315">
+        <v>285</v>
+      </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>13</v>
+      </c>
+      <c r="B316" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316">
+        <v>285</v>
+      </c>
+      <c r="D316">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>13</v>
+      </c>
+      <c r="B317" t="s">
+        <v>5</v>
+      </c>
+      <c r="C317">
+        <v>285</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>14</v>
+      </c>
+      <c r="B318" t="s">
+        <v>4</v>
+      </c>
+      <c r="C318">
+        <v>285</v>
+      </c>
+      <c r="D318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>14</v>
+      </c>
+      <c r="B319" t="s">
+        <v>5</v>
+      </c>
+      <c r="C319">
+        <v>285</v>
+      </c>
+      <c r="D319">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>15</v>
+      </c>
+      <c r="B320" t="s">
+        <v>5</v>
+      </c>
+      <c r="C320">
+        <v>285</v>
+      </c>
+      <c r="D320">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>1</v>
+      </c>
+      <c r="B321" t="s">
+        <v>4</v>
+      </c>
+      <c r="C321">
+        <v>289</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>1</v>
+      </c>
+      <c r="B322" t="s">
+        <v>5</v>
+      </c>
+      <c r="C322">
+        <v>289</v>
+      </c>
+      <c r="D322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>2</v>
+      </c>
+      <c r="B323" t="s">
+        <v>4</v>
+      </c>
+      <c r="C323">
+        <v>289</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>2</v>
+      </c>
+      <c r="B324" t="s">
+        <v>5</v>
+      </c>
+      <c r="C324">
+        <v>289</v>
+      </c>
+      <c r="D324">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>3</v>
+      </c>
+      <c r="B325" t="s">
+        <v>4</v>
+      </c>
+      <c r="C325">
+        <v>289</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>3</v>
+      </c>
+      <c r="B326" t="s">
+        <v>5</v>
+      </c>
+      <c r="C326">
+        <v>289</v>
+      </c>
+      <c r="D326">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>4</v>
+      </c>
+      <c r="B327" t="s">
+        <v>4</v>
+      </c>
+      <c r="C327">
+        <v>289</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>4</v>
+      </c>
+      <c r="B328" t="s">
+        <v>5</v>
+      </c>
+      <c r="C328">
+        <v>289</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>5</v>
+      </c>
+      <c r="B329" t="s">
+        <v>4</v>
+      </c>
+      <c r="C329">
+        <v>289</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>5</v>
+      </c>
+      <c r="B330" t="s">
+        <v>5</v>
+      </c>
+      <c r="C330">
+        <v>289</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>6</v>
+      </c>
+      <c r="B331" t="s">
+        <v>4</v>
+      </c>
+      <c r="C331">
+        <v>289</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>6</v>
+      </c>
+      <c r="B332" t="s">
+        <v>5</v>
+      </c>
+      <c r="C332">
+        <v>289</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>7</v>
+      </c>
+      <c r="B333" t="s">
+        <v>4</v>
+      </c>
+      <c r="C333">
+        <v>289</v>
+      </c>
+      <c r="D333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>7</v>
+      </c>
+      <c r="B334" t="s">
+        <v>5</v>
+      </c>
+      <c r="C334">
+        <v>289</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>8</v>
+      </c>
+      <c r="B335" t="s">
+        <v>4</v>
+      </c>
+      <c r="C335">
+        <v>289</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>8</v>
+      </c>
+      <c r="B336" t="s">
+        <v>5</v>
+      </c>
+      <c r="C336">
+        <v>289</v>
+      </c>
+      <c r="D336">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>9</v>
+      </c>
+      <c r="B337" t="s">
+        <v>4</v>
+      </c>
+      <c r="C337">
+        <v>289</v>
+      </c>
+      <c r="D337">
+        <f>-D3381</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>9</v>
+      </c>
+      <c r="B338" t="s">
+        <v>5</v>
+      </c>
+      <c r="C338">
+        <v>289</v>
+      </c>
+      <c r="D338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>10</v>
+      </c>
+      <c r="B339" t="s">
+        <v>4</v>
+      </c>
+      <c r="C339">
+        <v>289</v>
+      </c>
+      <c r="D339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>10</v>
+      </c>
+      <c r="B340" t="s">
+        <v>5</v>
+      </c>
+      <c r="C340">
+        <v>289</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>11</v>
+      </c>
+      <c r="B341" t="s">
+        <v>4</v>
+      </c>
+      <c r="C341">
+        <v>289</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>11</v>
+      </c>
+      <c r="B342" t="s">
+        <v>5</v>
+      </c>
+      <c r="C342">
+        <v>289</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>12</v>
+      </c>
+      <c r="B343" t="s">
+        <v>4</v>
+      </c>
+      <c r="C343">
+        <v>289</v>
+      </c>
+      <c r="D343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>12</v>
+      </c>
+      <c r="B344" t="s">
+        <v>5</v>
+      </c>
+      <c r="C344">
+        <v>289</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>13</v>
+      </c>
+      <c r="B345" t="s">
+        <v>4</v>
+      </c>
+      <c r="C345">
+        <v>289</v>
+      </c>
+      <c r="D345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>13</v>
+      </c>
+      <c r="B346" t="s">
+        <v>5</v>
+      </c>
+      <c r="C346">
+        <v>289</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>14</v>
+      </c>
+      <c r="B347" t="s">
+        <v>4</v>
+      </c>
+      <c r="C347">
+        <v>289</v>
+      </c>
+      <c r="D347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>14</v>
+      </c>
+      <c r="B348" t="s">
+        <v>5</v>
+      </c>
+      <c r="C348">
+        <v>289</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>15</v>
+      </c>
+      <c r="B349" t="s">
+        <v>5</v>
+      </c>
+      <c r="C349">
+        <v>289</v>
+      </c>
+      <c r="D349">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>1</v>
+      </c>
+      <c r="B350" t="s">
+        <v>4</v>
+      </c>
+      <c r="C350">
+        <v>309</v>
+      </c>
+      <c r="D350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>1</v>
+      </c>
+      <c r="B351" t="s">
+        <v>5</v>
+      </c>
+      <c r="C351">
+        <v>309</v>
+      </c>
+      <c r="D351">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>2</v>
+      </c>
+      <c r="B352" t="s">
+        <v>4</v>
+      </c>
+      <c r="C352">
+        <v>309</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>2</v>
+      </c>
+      <c r="B353" t="s">
+        <v>5</v>
+      </c>
+      <c r="C353">
+        <v>309</v>
+      </c>
+      <c r="D353">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>3</v>
+      </c>
+      <c r="B354" t="s">
+        <v>4</v>
+      </c>
+      <c r="C354">
+        <v>309</v>
+      </c>
+      <c r="D354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>3</v>
+      </c>
+      <c r="B355" t="s">
+        <v>5</v>
+      </c>
+      <c r="C355">
+        <v>309</v>
+      </c>
+      <c r="D355">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>4</v>
+      </c>
+      <c r="B356" t="s">
+        <v>4</v>
+      </c>
+      <c r="C356">
+        <v>309</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>4</v>
+      </c>
+      <c r="B357" t="s">
+        <v>5</v>
+      </c>
+      <c r="C357">
+        <v>309</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>5</v>
+      </c>
+      <c r="B358" t="s">
+        <v>4</v>
+      </c>
+      <c r="C358">
+        <v>309</v>
+      </c>
+      <c r="D358">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>5</v>
+      </c>
+      <c r="B359" t="s">
+        <v>5</v>
+      </c>
+      <c r="C359">
+        <v>309</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>6</v>
+      </c>
+      <c r="B360" t="s">
+        <v>4</v>
+      </c>
+      <c r="C360">
+        <v>309</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>6</v>
+      </c>
+      <c r="B361" t="s">
+        <v>5</v>
+      </c>
+      <c r="C361">
+        <v>309</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>7</v>
+      </c>
+      <c r="B362" t="s">
+        <v>4</v>
+      </c>
+      <c r="C362">
+        <v>309</v>
+      </c>
+      <c r="D362">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>7</v>
+      </c>
+      <c r="B363" t="s">
+        <v>5</v>
+      </c>
+      <c r="C363">
+        <v>309</v>
+      </c>
+      <c r="D363">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>8</v>
+      </c>
+      <c r="B364" t="s">
+        <v>4</v>
+      </c>
+      <c r="C364">
+        <v>309</v>
+      </c>
+      <c r="D364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>8</v>
+      </c>
+      <c r="B365" t="s">
+        <v>5</v>
+      </c>
+      <c r="C365">
+        <v>309</v>
+      </c>
+      <c r="D365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>9</v>
+      </c>
+      <c r="B366" t="s">
+        <v>4</v>
+      </c>
+      <c r="C366">
+        <v>309</v>
+      </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>9</v>
+      </c>
+      <c r="B367" t="s">
+        <v>5</v>
+      </c>
+      <c r="C367">
+        <v>309</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>10</v>
+      </c>
+      <c r="B368" t="s">
+        <v>4</v>
+      </c>
+      <c r="C368">
+        <v>309</v>
+      </c>
+      <c r="D368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>10</v>
+      </c>
+      <c r="B369" t="s">
+        <v>5</v>
+      </c>
+      <c r="C369">
+        <v>309</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>11</v>
+      </c>
+      <c r="B370" t="s">
+        <v>4</v>
+      </c>
+      <c r="C370">
+        <v>309</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>11</v>
+      </c>
+      <c r="B371" t="s">
+        <v>5</v>
+      </c>
+      <c r="C371">
+        <v>309</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>12</v>
+      </c>
+      <c r="B372" t="s">
+        <v>4</v>
+      </c>
+      <c r="C372">
+        <v>309</v>
+      </c>
+      <c r="D372">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>12</v>
+      </c>
+      <c r="B373" t="s">
+        <v>5</v>
+      </c>
+      <c r="C373">
+        <v>309</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>13</v>
+      </c>
+      <c r="B374" t="s">
+        <v>4</v>
+      </c>
+      <c r="C374">
+        <v>309</v>
+      </c>
+      <c r="D374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>13</v>
+      </c>
+      <c r="B375" t="s">
+        <v>5</v>
+      </c>
+      <c r="C375">
+        <v>309</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>14</v>
+      </c>
+      <c r="B376" t="s">
+        <v>4</v>
+      </c>
+      <c r="C376">
+        <v>309</v>
+      </c>
+      <c r="D376">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>14</v>
+      </c>
+      <c r="B377" t="s">
+        <v>5</v>
+      </c>
+      <c r="C377">
+        <v>309</v>
+      </c>
+      <c r="D377">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>15</v>
+      </c>
+      <c r="B378" t="s">
+        <v>5</v>
+      </c>
+      <c r="C378">
+        <v>309</v>
+      </c>
+      <c r="D378">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fitness_development/MFE_pupae.xlsx
+++ b/data/fitness_development/MFE_pupae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_18/data/fitness_development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DD8F7B3-9C74-054A-A73B-F7E3FADEB12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF96D3F-C096-9641-AE62-620D719FEE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{C4676CD7-2E49-4B49-A091-3E192C473528}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="6">
   <si>
     <t>vial</t>
   </si>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C1B781-7514-9640-96DE-98CFCBD1D8E4}">
-  <dimension ref="A1:D378"/>
+  <dimension ref="A1:D407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="D379" sqref="D379"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D407" sqref="D407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5729,6 +5729,409 @@
         <v>4</v>
       </c>
     </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>1</v>
+      </c>
+      <c r="B379" t="s">
+        <v>4</v>
+      </c>
+      <c r="C379">
+        <v>332</v>
+      </c>
+      <c r="D379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>1</v>
+      </c>
+      <c r="B380" t="s">
+        <v>5</v>
+      </c>
+      <c r="C380">
+        <v>332</v>
+      </c>
+      <c r="D380">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>2</v>
+      </c>
+      <c r="B381" t="s">
+        <v>4</v>
+      </c>
+      <c r="C381">
+        <v>332</v>
+      </c>
+      <c r="D381">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>2</v>
+      </c>
+      <c r="B382" t="s">
+        <v>5</v>
+      </c>
+      <c r="C382">
+        <v>332</v>
+      </c>
+      <c r="D382">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>3</v>
+      </c>
+      <c r="B383" t="s">
+        <v>4</v>
+      </c>
+      <c r="C383">
+        <v>332</v>
+      </c>
+      <c r="D383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>3</v>
+      </c>
+      <c r="B384" t="s">
+        <v>5</v>
+      </c>
+      <c r="C384">
+        <v>332</v>
+      </c>
+      <c r="D384">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>4</v>
+      </c>
+      <c r="B385" t="s">
+        <v>4</v>
+      </c>
+      <c r="C385">
+        <v>332</v>
+      </c>
+      <c r="D385">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>4</v>
+      </c>
+      <c r="B386" t="s">
+        <v>5</v>
+      </c>
+      <c r="C386">
+        <v>332</v>
+      </c>
+      <c r="D386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>5</v>
+      </c>
+      <c r="B387" t="s">
+        <v>4</v>
+      </c>
+      <c r="C387">
+        <v>332</v>
+      </c>
+      <c r="D387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>5</v>
+      </c>
+      <c r="B388" t="s">
+        <v>5</v>
+      </c>
+      <c r="C388">
+        <v>332</v>
+      </c>
+      <c r="D388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>6</v>
+      </c>
+      <c r="B389" t="s">
+        <v>4</v>
+      </c>
+      <c r="C389">
+        <v>332</v>
+      </c>
+      <c r="D389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>6</v>
+      </c>
+      <c r="B390" t="s">
+        <v>5</v>
+      </c>
+      <c r="C390">
+        <v>332</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>7</v>
+      </c>
+      <c r="B391" t="s">
+        <v>4</v>
+      </c>
+      <c r="C391">
+        <v>332</v>
+      </c>
+      <c r="D391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>7</v>
+      </c>
+      <c r="B392" t="s">
+        <v>5</v>
+      </c>
+      <c r="C392">
+        <v>332</v>
+      </c>
+      <c r="D392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>8</v>
+      </c>
+      <c r="B393" t="s">
+        <v>4</v>
+      </c>
+      <c r="C393">
+        <v>332</v>
+      </c>
+      <c r="D393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>8</v>
+      </c>
+      <c r="B394" t="s">
+        <v>5</v>
+      </c>
+      <c r="C394">
+        <v>332</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>9</v>
+      </c>
+      <c r="B395" t="s">
+        <v>4</v>
+      </c>
+      <c r="C395">
+        <v>332</v>
+      </c>
+      <c r="D395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>9</v>
+      </c>
+      <c r="B396" t="s">
+        <v>5</v>
+      </c>
+      <c r="C396">
+        <v>332</v>
+      </c>
+      <c r="D396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>10</v>
+      </c>
+      <c r="B397" t="s">
+        <v>4</v>
+      </c>
+      <c r="C397">
+        <v>332</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>10</v>
+      </c>
+      <c r="B398" t="s">
+        <v>5</v>
+      </c>
+      <c r="C398">
+        <v>332</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>11</v>
+      </c>
+      <c r="B399" t="s">
+        <v>4</v>
+      </c>
+      <c r="C399">
+        <v>332</v>
+      </c>
+      <c r="D399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>11</v>
+      </c>
+      <c r="B400" t="s">
+        <v>5</v>
+      </c>
+      <c r="C400">
+        <v>332</v>
+      </c>
+      <c r="D400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>12</v>
+      </c>
+      <c r="B401" t="s">
+        <v>4</v>
+      </c>
+      <c r="C401">
+        <v>332</v>
+      </c>
+      <c r="D401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>12</v>
+      </c>
+      <c r="B402" t="s">
+        <v>5</v>
+      </c>
+      <c r="C402">
+        <v>332</v>
+      </c>
+      <c r="D402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>13</v>
+      </c>
+      <c r="B403" t="s">
+        <v>4</v>
+      </c>
+      <c r="C403">
+        <v>332</v>
+      </c>
+      <c r="D403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>13</v>
+      </c>
+      <c r="B404" t="s">
+        <v>5</v>
+      </c>
+      <c r="C404">
+        <v>332</v>
+      </c>
+      <c r="D404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>14</v>
+      </c>
+      <c r="B405" t="s">
+        <v>4</v>
+      </c>
+      <c r="C405">
+        <v>332</v>
+      </c>
+      <c r="D405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>14</v>
+      </c>
+      <c r="B406" t="s">
+        <v>5</v>
+      </c>
+      <c r="C406">
+        <v>332</v>
+      </c>
+      <c r="D406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>15</v>
+      </c>
+      <c r="B407" t="s">
+        <v>5</v>
+      </c>
+      <c r="C407">
+        <v>332</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fitness_development/MFE_pupae.xlsx
+++ b/data/fitness_development/MFE_pupae.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_18/data/fitness_development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF96D3F-C096-9641-AE62-620D719FEE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67309C66-0332-6647-9CD1-BF08ED10E631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{C4676CD7-2E49-4B49-A091-3E192C473528}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C4676CD7-2E49-4B49-A091-3E192C473528}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="6">
   <si>
     <t>vial</t>
   </si>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C1B781-7514-9640-96DE-98CFCBD1D8E4}">
-  <dimension ref="A1:D407"/>
+  <dimension ref="A1:D465"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D407" sqref="D407"/>
+      <selection activeCell="D466" sqref="D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6131,6 +6131,821 @@
       <c r="C407">
         <v>332</v>
       </c>
+      <c r="D407">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>1</v>
+      </c>
+      <c r="B408" t="s">
+        <v>4</v>
+      </c>
+      <c r="C408">
+        <v>341</v>
+      </c>
+      <c r="D408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>1</v>
+      </c>
+      <c r="B409" t="s">
+        <v>5</v>
+      </c>
+      <c r="C409">
+        <v>341</v>
+      </c>
+      <c r="D409">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>2</v>
+      </c>
+      <c r="B410" t="s">
+        <v>4</v>
+      </c>
+      <c r="C410">
+        <v>341</v>
+      </c>
+      <c r="D410">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>2</v>
+      </c>
+      <c r="B411" t="s">
+        <v>5</v>
+      </c>
+      <c r="C411">
+        <v>341</v>
+      </c>
+      <c r="D411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>3</v>
+      </c>
+      <c r="B412" t="s">
+        <v>4</v>
+      </c>
+      <c r="C412">
+        <v>341</v>
+      </c>
+      <c r="D412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>3</v>
+      </c>
+      <c r="B413" t="s">
+        <v>5</v>
+      </c>
+      <c r="C413">
+        <v>341</v>
+      </c>
+      <c r="D413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>4</v>
+      </c>
+      <c r="B414" t="s">
+        <v>4</v>
+      </c>
+      <c r="C414">
+        <v>341</v>
+      </c>
+      <c r="D414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>4</v>
+      </c>
+      <c r="B415" t="s">
+        <v>5</v>
+      </c>
+      <c r="C415">
+        <v>341</v>
+      </c>
+      <c r="D415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>5</v>
+      </c>
+      <c r="B416" t="s">
+        <v>4</v>
+      </c>
+      <c r="C416">
+        <v>341</v>
+      </c>
+      <c r="D416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>5</v>
+      </c>
+      <c r="B417" t="s">
+        <v>5</v>
+      </c>
+      <c r="C417">
+        <v>341</v>
+      </c>
+      <c r="D417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>6</v>
+      </c>
+      <c r="B418" t="s">
+        <v>4</v>
+      </c>
+      <c r="C418">
+        <v>341</v>
+      </c>
+      <c r="D418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>6</v>
+      </c>
+      <c r="B419" t="s">
+        <v>5</v>
+      </c>
+      <c r="C419">
+        <v>341</v>
+      </c>
+      <c r="D419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>7</v>
+      </c>
+      <c r="B420" t="s">
+        <v>4</v>
+      </c>
+      <c r="C420">
+        <v>341</v>
+      </c>
+      <c r="D420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>7</v>
+      </c>
+      <c r="B421" t="s">
+        <v>5</v>
+      </c>
+      <c r="C421">
+        <v>341</v>
+      </c>
+      <c r="D421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>8</v>
+      </c>
+      <c r="B422" t="s">
+        <v>4</v>
+      </c>
+      <c r="C422">
+        <v>341</v>
+      </c>
+      <c r="D422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>8</v>
+      </c>
+      <c r="B423" t="s">
+        <v>5</v>
+      </c>
+      <c r="C423">
+        <v>341</v>
+      </c>
+      <c r="D423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>9</v>
+      </c>
+      <c r="B424" t="s">
+        <v>4</v>
+      </c>
+      <c r="C424">
+        <v>341</v>
+      </c>
+      <c r="D424">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>9</v>
+      </c>
+      <c r="B425" t="s">
+        <v>5</v>
+      </c>
+      <c r="C425">
+        <v>341</v>
+      </c>
+      <c r="D425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>10</v>
+      </c>
+      <c r="B426" t="s">
+        <v>4</v>
+      </c>
+      <c r="C426">
+        <v>341</v>
+      </c>
+      <c r="D426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>10</v>
+      </c>
+      <c r="B427" t="s">
+        <v>5</v>
+      </c>
+      <c r="C427">
+        <v>341</v>
+      </c>
+      <c r="D427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>11</v>
+      </c>
+      <c r="B428" t="s">
+        <v>4</v>
+      </c>
+      <c r="C428">
+        <v>341</v>
+      </c>
+      <c r="D428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>11</v>
+      </c>
+      <c r="B429" t="s">
+        <v>5</v>
+      </c>
+      <c r="C429">
+        <v>341</v>
+      </c>
+      <c r="D429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>12</v>
+      </c>
+      <c r="B430" t="s">
+        <v>4</v>
+      </c>
+      <c r="C430">
+        <v>341</v>
+      </c>
+      <c r="D430">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>12</v>
+      </c>
+      <c r="B431" t="s">
+        <v>5</v>
+      </c>
+      <c r="C431">
+        <v>341</v>
+      </c>
+      <c r="D431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>13</v>
+      </c>
+      <c r="B432" t="s">
+        <v>4</v>
+      </c>
+      <c r="C432">
+        <v>341</v>
+      </c>
+      <c r="D432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>13</v>
+      </c>
+      <c r="B433" t="s">
+        <v>5</v>
+      </c>
+      <c r="C433">
+        <v>341</v>
+      </c>
+      <c r="D433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>14</v>
+      </c>
+      <c r="B434" t="s">
+        <v>4</v>
+      </c>
+      <c r="C434">
+        <v>341</v>
+      </c>
+      <c r="D434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>14</v>
+      </c>
+      <c r="B435" t="s">
+        <v>5</v>
+      </c>
+      <c r="C435">
+        <v>341</v>
+      </c>
+      <c r="D435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>15</v>
+      </c>
+      <c r="B436" t="s">
+        <v>5</v>
+      </c>
+      <c r="C436">
+        <v>341</v>
+      </c>
+      <c r="D436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>1</v>
+      </c>
+      <c r="B437" t="s">
+        <v>4</v>
+      </c>
+      <c r="C437">
+        <v>356</v>
+      </c>
+      <c r="D437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>1</v>
+      </c>
+      <c r="B438" t="s">
+        <v>5</v>
+      </c>
+      <c r="C438">
+        <v>356</v>
+      </c>
+      <c r="D438">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>2</v>
+      </c>
+      <c r="B439" t="s">
+        <v>4</v>
+      </c>
+      <c r="C439">
+        <v>356</v>
+      </c>
+      <c r="D439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>2</v>
+      </c>
+      <c r="B440" t="s">
+        <v>5</v>
+      </c>
+      <c r="C440">
+        <v>356</v>
+      </c>
+      <c r="D440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>3</v>
+      </c>
+      <c r="B441" t="s">
+        <v>4</v>
+      </c>
+      <c r="C441">
+        <v>356</v>
+      </c>
+      <c r="D441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>3</v>
+      </c>
+      <c r="B442" t="s">
+        <v>5</v>
+      </c>
+      <c r="C442">
+        <v>356</v>
+      </c>
+      <c r="D442">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>4</v>
+      </c>
+      <c r="B443" t="s">
+        <v>4</v>
+      </c>
+      <c r="C443">
+        <v>356</v>
+      </c>
+      <c r="D443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>4</v>
+      </c>
+      <c r="B444" t="s">
+        <v>5</v>
+      </c>
+      <c r="C444">
+        <v>356</v>
+      </c>
+      <c r="D444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>5</v>
+      </c>
+      <c r="B445" t="s">
+        <v>4</v>
+      </c>
+      <c r="C445">
+        <v>356</v>
+      </c>
+      <c r="D445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>5</v>
+      </c>
+      <c r="B446" t="s">
+        <v>5</v>
+      </c>
+      <c r="C446">
+        <v>356</v>
+      </c>
+      <c r="D446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>6</v>
+      </c>
+      <c r="B447" t="s">
+        <v>4</v>
+      </c>
+      <c r="C447">
+        <v>356</v>
+      </c>
+      <c r="D447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>6</v>
+      </c>
+      <c r="B448" t="s">
+        <v>5</v>
+      </c>
+      <c r="C448">
+        <v>356</v>
+      </c>
+      <c r="D448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>7</v>
+      </c>
+      <c r="B449" t="s">
+        <v>4</v>
+      </c>
+      <c r="C449">
+        <v>356</v>
+      </c>
+      <c r="D449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>7</v>
+      </c>
+      <c r="B450" t="s">
+        <v>5</v>
+      </c>
+      <c r="C450">
+        <v>356</v>
+      </c>
+      <c r="D450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>8</v>
+      </c>
+      <c r="B451" t="s">
+        <v>4</v>
+      </c>
+      <c r="C451">
+        <v>356</v>
+      </c>
+      <c r="D451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>8</v>
+      </c>
+      <c r="B452" t="s">
+        <v>5</v>
+      </c>
+      <c r="C452">
+        <v>356</v>
+      </c>
+      <c r="D452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>9</v>
+      </c>
+      <c r="B453" t="s">
+        <v>4</v>
+      </c>
+      <c r="C453">
+        <v>356</v>
+      </c>
+      <c r="D453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>9</v>
+      </c>
+      <c r="B454" t="s">
+        <v>5</v>
+      </c>
+      <c r="C454">
+        <v>356</v>
+      </c>
+      <c r="D454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>10</v>
+      </c>
+      <c r="B455" t="s">
+        <v>4</v>
+      </c>
+      <c r="C455">
+        <v>356</v>
+      </c>
+      <c r="D455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>10</v>
+      </c>
+      <c r="B456" t="s">
+        <v>5</v>
+      </c>
+      <c r="C456">
+        <v>356</v>
+      </c>
+      <c r="D456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>11</v>
+      </c>
+      <c r="B457" t="s">
+        <v>4</v>
+      </c>
+      <c r="C457">
+        <v>356</v>
+      </c>
+      <c r="D457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>11</v>
+      </c>
+      <c r="B458" t="s">
+        <v>5</v>
+      </c>
+      <c r="C458">
+        <v>356</v>
+      </c>
+      <c r="D458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>12</v>
+      </c>
+      <c r="B459" t="s">
+        <v>4</v>
+      </c>
+      <c r="C459">
+        <v>356</v>
+      </c>
+      <c r="D459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>12</v>
+      </c>
+      <c r="B460" t="s">
+        <v>5</v>
+      </c>
+      <c r="C460">
+        <v>356</v>
+      </c>
+      <c r="D460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>13</v>
+      </c>
+      <c r="B461" t="s">
+        <v>4</v>
+      </c>
+      <c r="C461">
+        <v>356</v>
+      </c>
+      <c r="D461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>13</v>
+      </c>
+      <c r="B462" t="s">
+        <v>5</v>
+      </c>
+      <c r="C462">
+        <v>356</v>
+      </c>
+      <c r="D462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>14</v>
+      </c>
+      <c r="B463" t="s">
+        <v>4</v>
+      </c>
+      <c r="C463">
+        <v>356</v>
+      </c>
+      <c r="D463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>14</v>
+      </c>
+      <c r="B464" t="s">
+        <v>5</v>
+      </c>
+      <c r="C464">
+        <v>356</v>
+      </c>
+      <c r="D464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>15</v>
+      </c>
+      <c r="B465" t="s">
+        <v>5</v>
+      </c>
+      <c r="C465">
+        <v>356</v>
+      </c>
+      <c r="D465">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/fitness_development/MFE_pupae.xlsx
+++ b/data/fitness_development/MFE_pupae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_18/data/fitness_development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67309C66-0332-6647-9CD1-BF08ED10E631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E6FB966-D13C-754D-BD9F-D179CDD051CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C4676CD7-2E49-4B49-A091-3E192C473528}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="6">
   <si>
     <t>vial</t>
   </si>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C1B781-7514-9640-96DE-98CFCBD1D8E4}">
-  <dimension ref="A1:D465"/>
+  <dimension ref="A1:D494"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D466" sqref="D466"/>
+    <sheetView tabSelected="1" topLeftCell="A505" zoomScale="192" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6947,6 +6947,412 @@
         <v>1</v>
       </c>
     </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>1</v>
+      </c>
+      <c r="B466" t="s">
+        <v>4</v>
+      </c>
+      <c r="C466">
+        <v>365</v>
+      </c>
+      <c r="D466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>1</v>
+      </c>
+      <c r="B467" t="s">
+        <v>5</v>
+      </c>
+      <c r="C467">
+        <v>365</v>
+      </c>
+      <c r="D467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>2</v>
+      </c>
+      <c r="B468" t="s">
+        <v>4</v>
+      </c>
+      <c r="C468">
+        <v>365</v>
+      </c>
+      <c r="D468">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>2</v>
+      </c>
+      <c r="B469" t="s">
+        <v>5</v>
+      </c>
+      <c r="C469">
+        <v>365</v>
+      </c>
+      <c r="D469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>3</v>
+      </c>
+      <c r="B470" t="s">
+        <v>4</v>
+      </c>
+      <c r="C470">
+        <v>365</v>
+      </c>
+      <c r="D470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>3</v>
+      </c>
+      <c r="B471" t="s">
+        <v>5</v>
+      </c>
+      <c r="C471">
+        <v>365</v>
+      </c>
+      <c r="D471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>4</v>
+      </c>
+      <c r="B472" t="s">
+        <v>4</v>
+      </c>
+      <c r="C472">
+        <v>365</v>
+      </c>
+      <c r="D472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>4</v>
+      </c>
+      <c r="B473" t="s">
+        <v>5</v>
+      </c>
+      <c r="C473">
+        <v>365</v>
+      </c>
+      <c r="D473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>5</v>
+      </c>
+      <c r="B474" t="s">
+        <v>4</v>
+      </c>
+      <c r="C474">
+        <v>365</v>
+      </c>
+      <c r="D474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>5</v>
+      </c>
+      <c r="B475" t="s">
+        <v>5</v>
+      </c>
+      <c r="C475">
+        <v>365</v>
+      </c>
+      <c r="D475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>6</v>
+      </c>
+      <c r="B476" t="s">
+        <v>4</v>
+      </c>
+      <c r="C476">
+        <v>365</v>
+      </c>
+      <c r="D476">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>6</v>
+      </c>
+      <c r="B477" t="s">
+        <v>5</v>
+      </c>
+      <c r="C477">
+        <v>365</v>
+      </c>
+      <c r="D477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>7</v>
+      </c>
+      <c r="B478" t="s">
+        <v>4</v>
+      </c>
+      <c r="C478">
+        <v>365</v>
+      </c>
+      <c r="D478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>7</v>
+      </c>
+      <c r="B479" t="s">
+        <v>5</v>
+      </c>
+      <c r="C479">
+        <v>365</v>
+      </c>
+      <c r="D479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>8</v>
+      </c>
+      <c r="B480" t="s">
+        <v>4</v>
+      </c>
+      <c r="C480">
+        <v>365</v>
+      </c>
+      <c r="D480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>8</v>
+      </c>
+      <c r="B481" t="s">
+        <v>5</v>
+      </c>
+      <c r="C481">
+        <v>365</v>
+      </c>
+      <c r="D481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>9</v>
+      </c>
+      <c r="B482" t="s">
+        <v>4</v>
+      </c>
+      <c r="C482">
+        <v>365</v>
+      </c>
+      <c r="D482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>9</v>
+      </c>
+      <c r="B483" t="s">
+        <v>5</v>
+      </c>
+      <c r="C483">
+        <v>365</v>
+      </c>
+      <c r="D483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484">
+        <v>10</v>
+      </c>
+      <c r="B484" t="s">
+        <v>4</v>
+      </c>
+      <c r="C484">
+        <v>365</v>
+      </c>
+      <c r="D484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485">
+        <v>10</v>
+      </c>
+      <c r="B485" t="s">
+        <v>5</v>
+      </c>
+      <c r="C485">
+        <v>365</v>
+      </c>
+      <c r="D485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>11</v>
+      </c>
+      <c r="B486" t="s">
+        <v>4</v>
+      </c>
+      <c r="C486">
+        <v>365</v>
+      </c>
+      <c r="D486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>11</v>
+      </c>
+      <c r="B487" t="s">
+        <v>5</v>
+      </c>
+      <c r="C487">
+        <v>365</v>
+      </c>
+      <c r="D487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>12</v>
+      </c>
+      <c r="B488" t="s">
+        <v>4</v>
+      </c>
+      <c r="C488">
+        <v>365</v>
+      </c>
+      <c r="D488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>12</v>
+      </c>
+      <c r="B489" t="s">
+        <v>5</v>
+      </c>
+      <c r="C489">
+        <v>365</v>
+      </c>
+      <c r="D489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>13</v>
+      </c>
+      <c r="B490" t="s">
+        <v>4</v>
+      </c>
+      <c r="C490">
+        <v>365</v>
+      </c>
+      <c r="D490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>13</v>
+      </c>
+      <c r="B491" t="s">
+        <v>5</v>
+      </c>
+      <c r="C491">
+        <v>365</v>
+      </c>
+      <c r="D491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>14</v>
+      </c>
+      <c r="B492" t="s">
+        <v>4</v>
+      </c>
+      <c r="C492">
+        <v>365</v>
+      </c>
+      <c r="D492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>14</v>
+      </c>
+      <c r="B493" t="s">
+        <v>5</v>
+      </c>
+      <c r="C493">
+        <v>365</v>
+      </c>
+      <c r="D493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>15</v>
+      </c>
+      <c r="B494" t="s">
+        <v>5</v>
+      </c>
+      <c r="C494">
+        <v>365</v>
+      </c>
+      <c r="D494">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fitness_development/MFE_pupae.xlsx
+++ b/data/fitness_development/MFE_pupae.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_18/data/fitness_development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_19/data/fitness_development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E6FB966-D13C-754D-BD9F-D179CDD051CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D0FF274-876E-994F-A023-F38BDB344FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C4676CD7-2E49-4B49-A091-3E192C473528}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="9">
   <si>
     <t>vial</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>unconditioned</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -425,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C1B781-7514-9640-96DE-98CFCBD1D8E4}">
-  <dimension ref="A1:D494"/>
+  <dimension ref="A1:E494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A505" zoomScale="192" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176"/>
+    <sheetView tabSelected="1" topLeftCell="A454" zoomScale="84" workbookViewId="0">
+      <selection activeCell="H481" sqref="H481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,7 +445,7 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,8 +458,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -463,8 +475,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -477,8 +492,11 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -491,8 +509,11 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -505,8 +526,11 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -519,8 +543,11 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -533,8 +560,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -547,8 +577,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -561,8 +594,11 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -575,8 +611,11 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -589,8 +628,11 @@
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -603,8 +645,11 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -617,8 +662,11 @@
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7</v>
       </c>
@@ -631,8 +679,11 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7</v>
       </c>
@@ -645,8 +696,11 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8</v>
       </c>
@@ -659,8 +713,11 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8</v>
       </c>
@@ -673,8 +730,11 @@
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
@@ -687,8 +747,11 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9</v>
       </c>
@@ -701,8 +764,11 @@
       <c r="D19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10</v>
       </c>
@@ -715,8 +781,11 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10</v>
       </c>
@@ -729,8 +798,11 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>11</v>
       </c>
@@ -743,8 +815,11 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>11</v>
       </c>
@@ -757,8 +832,11 @@
       <c r="D23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>12</v>
       </c>
@@ -771,8 +849,11 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>12</v>
       </c>
@@ -785,8 +866,11 @@
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>13</v>
       </c>
@@ -799,8 +883,11 @@
       <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>13</v>
       </c>
@@ -813,8 +900,11 @@
       <c r="D27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>14</v>
       </c>
@@ -827,8 +917,11 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>14</v>
       </c>
@@ -841,8 +934,11 @@
       <c r="D29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>15</v>
       </c>
@@ -855,8 +951,11 @@
       <c r="D30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -869,8 +968,11 @@
       <c r="D31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -883,8 +985,11 @@
       <c r="D32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -897,8 +1002,11 @@
       <c r="D33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -911,8 +1019,11 @@
       <c r="D34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -925,8 +1036,11 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -939,8 +1053,11 @@
       <c r="D36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -953,8 +1070,11 @@
       <c r="D37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4</v>
       </c>
@@ -967,8 +1087,11 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>5</v>
       </c>
@@ -981,8 +1104,11 @@
       <c r="D39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>5</v>
       </c>
@@ -995,8 +1121,11 @@
       <c r="D40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>6</v>
       </c>
@@ -1009,8 +1138,11 @@
       <c r="D41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>6</v>
       </c>
@@ -1023,8 +1155,11 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>7</v>
       </c>
@@ -1037,8 +1172,11 @@
       <c r="D43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1051,8 +1189,11 @@
       <c r="D44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>8</v>
       </c>
@@ -1065,8 +1206,11 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>8</v>
       </c>
@@ -1079,8 +1223,11 @@
       <c r="D46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>9</v>
       </c>
@@ -1093,8 +1240,11 @@
       <c r="D47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>9</v>
       </c>
@@ -1107,8 +1257,11 @@
       <c r="D48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>10</v>
       </c>
@@ -1121,8 +1274,11 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>10</v>
       </c>
@@ -1135,8 +1291,11 @@
       <c r="D50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>11</v>
       </c>
@@ -1149,8 +1308,11 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>11</v>
       </c>
@@ -1163,8 +1325,11 @@
       <c r="D52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>12</v>
       </c>
@@ -1177,8 +1342,11 @@
       <c r="D53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>12</v>
       </c>
@@ -1191,8 +1359,11 @@
       <c r="D54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>13</v>
       </c>
@@ -1205,8 +1376,11 @@
       <c r="D55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>13</v>
       </c>
@@ -1219,8 +1393,11 @@
       <c r="D56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>14</v>
       </c>
@@ -1233,8 +1410,11 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>14</v>
       </c>
@@ -1247,8 +1427,11 @@
       <c r="D58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>15</v>
       </c>
@@ -1261,8 +1444,11 @@
       <c r="D59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1</v>
       </c>
@@ -1275,8 +1461,11 @@
       <c r="D60">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1</v>
       </c>
@@ -1289,8 +1478,11 @@
       <c r="D61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2</v>
       </c>
@@ -1303,8 +1495,11 @@
       <c r="D62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2</v>
       </c>
@@ -1317,8 +1512,11 @@
       <c r="D63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3</v>
       </c>
@@ -1331,8 +1529,11 @@
       <c r="D64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3</v>
       </c>
@@ -1345,8 +1546,11 @@
       <c r="D65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4</v>
       </c>
@@ -1359,8 +1563,11 @@
       <c r="D66">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>4</v>
       </c>
@@ -1373,8 +1580,11 @@
       <c r="D67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>5</v>
       </c>
@@ -1387,8 +1597,11 @@
       <c r="D68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>5</v>
       </c>
@@ -1401,8 +1614,11 @@
       <c r="D69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>6</v>
       </c>
@@ -1415,8 +1631,11 @@
       <c r="D70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>6</v>
       </c>
@@ -1429,8 +1648,11 @@
       <c r="D71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>7</v>
       </c>
@@ -1443,8 +1665,11 @@
       <c r="D72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>7</v>
       </c>
@@ -1457,8 +1682,11 @@
       <c r="D73">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>8</v>
       </c>
@@ -1471,8 +1699,11 @@
       <c r="D74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>8</v>
       </c>
@@ -1485,8 +1716,11 @@
       <c r="D75">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>9</v>
       </c>
@@ -1499,8 +1733,11 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>9</v>
       </c>
@@ -1513,8 +1750,11 @@
       <c r="D77">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>10</v>
       </c>
@@ -1527,8 +1767,11 @@
       <c r="D78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>10</v>
       </c>
@@ -1541,8 +1784,11 @@
       <c r="D79">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>11</v>
       </c>
@@ -1555,8 +1801,11 @@
       <c r="D80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>11</v>
       </c>
@@ -1569,8 +1818,11 @@
       <c r="D81">
         <v>14</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>12</v>
       </c>
@@ -1583,8 +1835,11 @@
       <c r="D82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>12</v>
       </c>
@@ -1597,8 +1852,11 @@
       <c r="D83">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>13</v>
       </c>
@@ -1611,8 +1869,11 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>13</v>
       </c>
@@ -1625,8 +1886,11 @@
       <c r="D85">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>14</v>
       </c>
@@ -1639,8 +1903,11 @@
       <c r="D86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>14</v>
       </c>
@@ -1653,8 +1920,11 @@
       <c r="D87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>15</v>
       </c>
@@ -1667,8 +1937,11 @@
       <c r="D88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1</v>
       </c>
@@ -1681,8 +1954,11 @@
       <c r="D89">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1</v>
       </c>
@@ -1695,8 +1971,11 @@
       <c r="D90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2</v>
       </c>
@@ -1709,8 +1988,11 @@
       <c r="D91">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2</v>
       </c>
@@ -1723,8 +2005,11 @@
       <c r="D92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>3</v>
       </c>
@@ -1737,8 +2022,11 @@
       <c r="D93">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>3</v>
       </c>
@@ -1751,8 +2039,11 @@
       <c r="D94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>4</v>
       </c>
@@ -1765,8 +2056,11 @@
       <c r="D95">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>4</v>
       </c>
@@ -1779,8 +2073,11 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>5</v>
       </c>
@@ -1793,8 +2090,11 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>5</v>
       </c>
@@ -1807,8 +2107,11 @@
       <c r="D98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>6</v>
       </c>
@@ -1821,8 +2124,11 @@
       <c r="D99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>6</v>
       </c>
@@ -1835,8 +2141,11 @@
       <c r="D100">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>7</v>
       </c>
@@ -1849,8 +2158,11 @@
       <c r="D101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>7</v>
       </c>
@@ -1863,8 +2175,11 @@
       <c r="D102">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>8</v>
       </c>
@@ -1877,8 +2192,11 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>8</v>
       </c>
@@ -1891,8 +2209,11 @@
       <c r="D104">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>9</v>
       </c>
@@ -1905,8 +2226,11 @@
       <c r="D105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>9</v>
       </c>
@@ -1919,8 +2243,11 @@
       <c r="D106">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>10</v>
       </c>
@@ -1933,8 +2260,11 @@
       <c r="D107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>10</v>
       </c>
@@ -1947,8 +2277,11 @@
       <c r="D108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>11</v>
       </c>
@@ -1961,8 +2294,11 @@
       <c r="D109">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>11</v>
       </c>
@@ -1975,8 +2311,11 @@
       <c r="D110">
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>12</v>
       </c>
@@ -1989,8 +2328,11 @@
       <c r="D111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>12</v>
       </c>
@@ -2003,8 +2345,11 @@
       <c r="D112">
         <v>9</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>13</v>
       </c>
@@ -2017,8 +2362,11 @@
       <c r="D113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>13</v>
       </c>
@@ -2031,8 +2379,11 @@
       <c r="D114">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>14</v>
       </c>
@@ -2045,8 +2396,11 @@
       <c r="D115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>14</v>
       </c>
@@ -2059,8 +2413,11 @@
       <c r="D116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>15</v>
       </c>
@@ -2073,8 +2430,11 @@
       <c r="D117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1</v>
       </c>
@@ -2087,8 +2447,11 @@
       <c r="D118">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1</v>
       </c>
@@ -2101,8 +2464,11 @@
       <c r="D119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2</v>
       </c>
@@ -2115,8 +2481,11 @@
       <c r="D120">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2</v>
       </c>
@@ -2129,8 +2498,11 @@
       <c r="D121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>3</v>
       </c>
@@ -2143,8 +2515,11 @@
       <c r="D122">
         <v>7</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>3</v>
       </c>
@@ -2157,8 +2532,11 @@
       <c r="D123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>4</v>
       </c>
@@ -2171,8 +2549,11 @@
       <c r="D124">
         <v>5</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>4</v>
       </c>
@@ -2185,8 +2566,11 @@
       <c r="D125">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>5</v>
       </c>
@@ -2199,8 +2583,11 @@
       <c r="D126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>5</v>
       </c>
@@ -2213,8 +2600,11 @@
       <c r="D127">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>6</v>
       </c>
@@ -2227,8 +2617,11 @@
       <c r="D128">
         <v>3</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>6</v>
       </c>
@@ -2241,8 +2634,11 @@
       <c r="D129">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>7</v>
       </c>
@@ -2255,8 +2651,11 @@
       <c r="D130">
         <v>2</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>7</v>
       </c>
@@ -2269,8 +2668,11 @@
       <c r="D131">
         <v>13</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>8</v>
       </c>
@@ -2283,8 +2685,11 @@
       <c r="D132">
         <v>7</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>8</v>
       </c>
@@ -2297,8 +2702,11 @@
       <c r="D133">
         <v>10</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>9</v>
       </c>
@@ -2311,8 +2719,11 @@
       <c r="D134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>9</v>
       </c>
@@ -2325,8 +2736,11 @@
       <c r="D135">
         <v>12</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>10</v>
       </c>
@@ -2339,8 +2753,11 @@
       <c r="D136">
         <v>6</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>10</v>
       </c>
@@ -2353,8 +2770,11 @@
       <c r="D137">
         <v>10</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>11</v>
       </c>
@@ -2367,8 +2787,11 @@
       <c r="D138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>11</v>
       </c>
@@ -2381,8 +2804,11 @@
       <c r="D139">
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>12</v>
       </c>
@@ -2395,8 +2821,11 @@
       <c r="D140">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>12</v>
       </c>
@@ -2409,8 +2838,11 @@
       <c r="D141">
         <v>10</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>13</v>
       </c>
@@ -2423,8 +2855,11 @@
       <c r="D142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>13</v>
       </c>
@@ -2437,8 +2872,11 @@
       <c r="D143">
         <v>2</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>14</v>
       </c>
@@ -2451,8 +2889,11 @@
       <c r="D144">
         <v>2</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>14</v>
       </c>
@@ -2465,8 +2906,11 @@
       <c r="D145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>15</v>
       </c>
@@ -2479,8 +2923,11 @@
       <c r="D146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1</v>
       </c>
@@ -2493,8 +2940,11 @@
       <c r="D147">
         <v>10</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1</v>
       </c>
@@ -2507,8 +2957,11 @@
       <c r="D148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2</v>
       </c>
@@ -2521,8 +2974,11 @@
       <c r="D149">
         <v>11</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2</v>
       </c>
@@ -2535,8 +2991,11 @@
       <c r="D150">
         <v>2</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>3</v>
       </c>
@@ -2549,8 +3008,11 @@
       <c r="D151">
         <v>11</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>3</v>
       </c>
@@ -2563,8 +3025,11 @@
       <c r="D152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>4</v>
       </c>
@@ -2577,8 +3042,11 @@
       <c r="D153">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>4</v>
       </c>
@@ -2591,8 +3059,11 @@
       <c r="D154">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>5</v>
       </c>
@@ -2605,8 +3076,11 @@
       <c r="D155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E155" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>5</v>
       </c>
@@ -2619,8 +3093,11 @@
       <c r="D156">
         <v>8</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E156" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>6</v>
       </c>
@@ -2633,8 +3110,11 @@
       <c r="D157">
         <v>9</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>6</v>
       </c>
@@ -2647,8 +3127,11 @@
       <c r="D158">
         <v>6</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>7</v>
       </c>
@@ -2661,8 +3144,11 @@
       <c r="D159">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>7</v>
       </c>
@@ -2675,8 +3161,11 @@
       <c r="D160">
         <v>6</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>8</v>
       </c>
@@ -2689,8 +3178,11 @@
       <c r="D161">
         <v>10</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>8</v>
       </c>
@@ -2703,8 +3195,11 @@
       <c r="D162">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>9</v>
       </c>
@@ -2717,8 +3212,11 @@
       <c r="D163">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>9</v>
       </c>
@@ -2731,8 +3229,11 @@
       <c r="D164">
         <v>4</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>10</v>
       </c>
@@ -2745,8 +3246,11 @@
       <c r="D165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>10</v>
       </c>
@@ -2759,8 +3263,11 @@
       <c r="D166">
         <v>3</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E166" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>11</v>
       </c>
@@ -2773,8 +3280,11 @@
       <c r="D167">
         <v>2</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>11</v>
       </c>
@@ -2787,8 +3297,11 @@
       <c r="D168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>12</v>
       </c>
@@ -2801,8 +3314,11 @@
       <c r="D169">
         <v>3</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>12</v>
       </c>
@@ -2815,8 +3331,11 @@
       <c r="D170">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>13</v>
       </c>
@@ -2829,8 +3348,11 @@
       <c r="D171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>13</v>
       </c>
@@ -2843,8 +3365,11 @@
       <c r="D172">
         <v>3</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E172" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>14</v>
       </c>
@@ -2857,8 +3382,11 @@
       <c r="D173">
         <v>3</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>14</v>
       </c>
@@ -2871,8 +3399,11 @@
       <c r="D174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E174" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>15</v>
       </c>
@@ -2885,8 +3416,11 @@
       <c r="D175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E175" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1</v>
       </c>
@@ -2899,8 +3433,11 @@
       <c r="D176">
         <v>11</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1</v>
       </c>
@@ -2913,8 +3450,11 @@
       <c r="D177">
         <v>2</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2</v>
       </c>
@@ -2927,8 +3467,11 @@
       <c r="D178">
         <v>9</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2</v>
       </c>
@@ -2941,8 +3484,11 @@
       <c r="D179">
         <v>4</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E179" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>3</v>
       </c>
@@ -2955,8 +3501,11 @@
       <c r="D180">
         <v>10</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E180" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>3</v>
       </c>
@@ -2969,8 +3518,11 @@
       <c r="D181">
         <v>3</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E181" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>4</v>
       </c>
@@ -2983,8 +3535,11 @@
       <c r="D182">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E182" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>4</v>
       </c>
@@ -2997,8 +3552,11 @@
       <c r="D183">
         <v>12</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>5</v>
       </c>
@@ -3011,8 +3569,11 @@
       <c r="D184">
         <v>2</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>5</v>
       </c>
@@ -3025,8 +3586,11 @@
       <c r="D185">
         <v>10</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>6</v>
       </c>
@@ -3039,8 +3603,11 @@
       <c r="D186">
         <v>10</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E186" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>6</v>
       </c>
@@ -3053,8 +3620,11 @@
       <c r="D187">
         <v>7</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E187" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>7</v>
       </c>
@@ -3067,8 +3637,11 @@
       <c r="D188">
         <v>6</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E188" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>7</v>
       </c>
@@ -3081,8 +3654,11 @@
       <c r="D189">
         <v>9</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E189" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>8</v>
       </c>
@@ -3095,8 +3671,11 @@
       <c r="D190">
         <v>9</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E190" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>8</v>
       </c>
@@ -3109,8 +3688,11 @@
       <c r="D191">
         <v>7</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E191" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>9</v>
       </c>
@@ -3123,8 +3705,11 @@
       <c r="D192">
         <v>5</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E192" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>9</v>
       </c>
@@ -3137,8 +3722,11 @@
       <c r="D193">
         <v>8</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E193" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>10</v>
       </c>
@@ -3151,8 +3739,11 @@
       <c r="D194">
         <v>10</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E194" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>10</v>
       </c>
@@ -3165,8 +3756,11 @@
       <c r="D195">
         <v>7</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E195" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>11</v>
       </c>
@@ -3179,8 +3773,11 @@
       <c r="D196">
         <v>9</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E196" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>11</v>
       </c>
@@ -3193,8 +3790,11 @@
       <c r="D197">
         <v>3</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E197" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>12</v>
       </c>
@@ -3207,8 +3807,11 @@
       <c r="D198">
         <v>2</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E198" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>12</v>
       </c>
@@ -3221,8 +3824,11 @@
       <c r="D199">
         <v>6</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E199" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>13</v>
       </c>
@@ -3235,8 +3841,11 @@
       <c r="D200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E200" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>13</v>
       </c>
@@ -3249,8 +3858,11 @@
       <c r="D201">
         <v>13</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E201" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>14</v>
       </c>
@@ -3263,8 +3875,11 @@
       <c r="D202">
         <v>12</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E202" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>14</v>
       </c>
@@ -3277,8 +3892,11 @@
       <c r="D203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E203" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>15</v>
       </c>
@@ -3291,8 +3909,11 @@
       <c r="D204">
         <v>2</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E204" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>1</v>
       </c>
@@ -3305,8 +3926,11 @@
       <c r="D205">
         <v>5</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E205" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>1</v>
       </c>
@@ -3319,8 +3943,11 @@
       <c r="D206">
         <v>3</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E206" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2</v>
       </c>
@@ -3333,8 +3960,11 @@
       <c r="D207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E207" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2</v>
       </c>
@@ -3347,8 +3977,11 @@
       <c r="D208">
         <v>6</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E208" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>3</v>
       </c>
@@ -3361,8 +3994,11 @@
       <c r="D209">
         <v>2</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E209" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>3</v>
       </c>
@@ -3375,8 +4011,11 @@
       <c r="D210">
         <v>5</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E210" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>4</v>
       </c>
@@ -3389,8 +4028,11 @@
       <c r="D211">
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E211" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>4</v>
       </c>
@@ -3403,8 +4045,11 @@
       <c r="D212">
         <v>6</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E212" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>5</v>
       </c>
@@ -3417,8 +4062,11 @@
       <c r="D213">
         <v>5</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E213" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>5</v>
       </c>
@@ -3431,8 +4079,11 @@
       <c r="D214">
         <v>12</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E214" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>6</v>
       </c>
@@ -3445,8 +4096,11 @@
       <c r="D215">
         <v>6</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E215" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>6</v>
       </c>
@@ -3459,8 +4113,11 @@
       <c r="D216">
         <v>7</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E216" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>7</v>
       </c>
@@ -3473,8 +4130,11 @@
       <c r="D217">
         <v>2</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E217" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>7</v>
       </c>
@@ -3487,8 +4147,11 @@
       <c r="D218">
         <v>8</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E218" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>8</v>
       </c>
@@ -3501,8 +4164,11 @@
       <c r="D219">
         <v>6</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E219" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>8</v>
       </c>
@@ -3515,8 +4181,11 @@
       <c r="D220">
         <v>2</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E220" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>9</v>
       </c>
@@ -3529,8 +4198,11 @@
       <c r="D221">
         <v>6</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E221" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>9</v>
       </c>
@@ -3543,8 +4215,11 @@
       <c r="D222">
         <v>4</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E222" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>10</v>
       </c>
@@ -3557,8 +4232,11 @@
       <c r="D223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E223" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>10</v>
       </c>
@@ -3571,8 +4249,11 @@
       <c r="D224">
         <v>3</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E224" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>11</v>
       </c>
@@ -3585,8 +4266,11 @@
       <c r="D225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E225" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>11</v>
       </c>
@@ -3599,8 +4283,11 @@
       <c r="D226">
         <v>2</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E226" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>12</v>
       </c>
@@ -3613,8 +4300,11 @@
       <c r="D227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E227" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>12</v>
       </c>
@@ -3627,8 +4317,11 @@
       <c r="D228">
         <v>2</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E228" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>13</v>
       </c>
@@ -3641,8 +4334,11 @@
       <c r="D229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E229" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>13</v>
       </c>
@@ -3655,8 +4351,11 @@
       <c r="D230">
         <v>6</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E230" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>14</v>
       </c>
@@ -3669,8 +4368,11 @@
       <c r="D231">
         <v>5</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E231" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>14</v>
       </c>
@@ -3683,8 +4385,11 @@
       <c r="D232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E232" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>15</v>
       </c>
@@ -3697,8 +4402,11 @@
       <c r="D233">
         <v>3</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E233" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>1</v>
       </c>
@@ -3711,8 +4419,11 @@
       <c r="D234">
         <v>6</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E234" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>1</v>
       </c>
@@ -3725,8 +4436,11 @@
       <c r="D235">
         <v>7</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E235" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2</v>
       </c>
@@ -3739,8 +4453,11 @@
       <c r="D236">
         <v>3</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E236" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2</v>
       </c>
@@ -3753,8 +4470,11 @@
       <c r="D237">
         <v>6</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E237" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>3</v>
       </c>
@@ -3767,8 +4487,11 @@
       <c r="D238">
         <v>2</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E238" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>3</v>
       </c>
@@ -3781,8 +4504,11 @@
       <c r="D239">
         <v>2</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E239" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>4</v>
       </c>
@@ -3795,8 +4521,11 @@
       <c r="D240">
         <v>4</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E240" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>4</v>
       </c>
@@ -3809,8 +4538,11 @@
       <c r="D241">
         <v>8</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E241" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>5</v>
       </c>
@@ -3823,8 +4555,11 @@
       <c r="D242">
         <v>3</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E242" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>5</v>
       </c>
@@ -3837,8 +4572,11 @@
       <c r="D243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E243" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>6</v>
       </c>
@@ -3851,8 +4589,11 @@
       <c r="D244">
         <v>5</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E244" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>6</v>
       </c>
@@ -3865,8 +4606,11 @@
       <c r="D245">
         <v>11</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E245" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>7</v>
       </c>
@@ -3879,8 +4623,11 @@
       <c r="D246">
         <v>9</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E246" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>7</v>
       </c>
@@ -3893,8 +4640,11 @@
       <c r="D247">
         <v>5</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E247" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>8</v>
       </c>
@@ -3907,8 +4657,11 @@
       <c r="D248">
         <v>3</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E248" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>8</v>
       </c>
@@ -3921,8 +4674,11 @@
       <c r="D249">
         <v>4</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E249" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>9</v>
       </c>
@@ -3935,8 +4691,11 @@
       <c r="D250">
         <v>4</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E250" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>9</v>
       </c>
@@ -3949,8 +4708,11 @@
       <c r="D251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E251" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>10</v>
       </c>
@@ -3963,8 +4725,11 @@
       <c r="D252">
         <v>6</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E252" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>10</v>
       </c>
@@ -3977,8 +4742,11 @@
       <c r="D253">
         <v>4</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E253" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>11</v>
       </c>
@@ -3991,8 +4759,11 @@
       <c r="D254">
         <v>4</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E254" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>11</v>
       </c>
@@ -4005,8 +4776,11 @@
       <c r="D255">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E255" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>12</v>
       </c>
@@ -4019,8 +4793,11 @@
       <c r="D256">
         <v>4</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E256" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>12</v>
       </c>
@@ -4033,8 +4810,11 @@
       <c r="D257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E257" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>13</v>
       </c>
@@ -4047,8 +4827,11 @@
       <c r="D258">
         <v>4</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E258" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>13</v>
       </c>
@@ -4061,8 +4844,11 @@
       <c r="D259">
         <v>5</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E259" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>14</v>
       </c>
@@ -4075,8 +4861,11 @@
       <c r="D260">
         <v>12</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E260" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>14</v>
       </c>
@@ -4089,8 +4878,11 @@
       <c r="D261">
         <v>5</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E261" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>15</v>
       </c>
@@ -4103,8 +4895,11 @@
       <c r="D262">
         <v>4</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E262" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>1</v>
       </c>
@@ -4117,8 +4912,11 @@
       <c r="D263">
         <v>6</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E263" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>1</v>
       </c>
@@ -4131,8 +4929,11 @@
       <c r="D264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E264" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>2</v>
       </c>
@@ -4145,8 +4946,11 @@
       <c r="D265">
         <v>3</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E265" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>2</v>
       </c>
@@ -4159,8 +4963,11 @@
       <c r="D266">
         <v>2</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E266" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>3</v>
       </c>
@@ -4173,8 +4980,11 @@
       <c r="D267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E267" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>3</v>
       </c>
@@ -4187,8 +4997,11 @@
       <c r="D268">
         <v>3</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E268" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>4</v>
       </c>
@@ -4201,8 +5014,11 @@
       <c r="D269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E269" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>4</v>
       </c>
@@ -4215,8 +5031,11 @@
       <c r="D270">
         <v>5</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E270" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>5</v>
       </c>
@@ -4229,8 +5048,11 @@
       <c r="D271">
         <v>4</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E271" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>5</v>
       </c>
@@ -4243,8 +5065,11 @@
       <c r="D272">
         <v>4</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E272" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>6</v>
       </c>
@@ -4257,8 +5082,11 @@
       <c r="D273">
         <v>2</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E273" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>6</v>
       </c>
@@ -4271,8 +5099,11 @@
       <c r="D274">
         <v>3</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E274" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>7</v>
       </c>
@@ -4285,8 +5116,11 @@
       <c r="D275">
         <v>4</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E275" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>7</v>
       </c>
@@ -4299,8 +5133,11 @@
       <c r="D276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E276" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>8</v>
       </c>
@@ -4313,8 +5150,11 @@
       <c r="D277">
         <v>5</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E277" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>8</v>
       </c>
@@ -4327,8 +5167,11 @@
       <c r="D278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E278" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>9</v>
       </c>
@@ -4341,8 +5184,11 @@
       <c r="D279">
         <v>7</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E279" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>9</v>
       </c>
@@ -4355,8 +5201,11 @@
       <c r="D280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E280" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>10</v>
       </c>
@@ -4369,8 +5218,11 @@
       <c r="D281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E281" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>10</v>
       </c>
@@ -4383,8 +5235,11 @@
       <c r="D282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E282" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>11</v>
       </c>
@@ -4397,8 +5252,11 @@
       <c r="D283">
         <v>2</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E283" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>11</v>
       </c>
@@ -4411,8 +5269,11 @@
       <c r="D284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E284" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>12</v>
       </c>
@@ -4425,8 +5286,11 @@
       <c r="D285">
         <v>9</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E285" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>12</v>
       </c>
@@ -4439,8 +5303,11 @@
       <c r="D286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E286" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>13</v>
       </c>
@@ -4453,8 +5320,11 @@
       <c r="D287">
         <v>4</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E287" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>13</v>
       </c>
@@ -4467,8 +5337,11 @@
       <c r="D288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E288" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>14</v>
       </c>
@@ -4481,8 +5354,11 @@
       <c r="D289">
         <v>3</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E289" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>14</v>
       </c>
@@ -4495,8 +5371,11 @@
       <c r="D290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E290" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>15</v>
       </c>
@@ -4509,8 +5388,11 @@
       <c r="D291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E291" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>1</v>
       </c>
@@ -4523,8 +5405,11 @@
       <c r="D292">
         <v>6</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E292" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>1</v>
       </c>
@@ -4537,8 +5422,11 @@
       <c r="D293">
         <v>6</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E293" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2</v>
       </c>
@@ -4551,8 +5439,11 @@
       <c r="D294">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E294" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2</v>
       </c>
@@ -4565,8 +5456,11 @@
       <c r="D295">
         <v>2</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E295" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>3</v>
       </c>
@@ -4579,8 +5473,11 @@
       <c r="D296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E296" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>3</v>
       </c>
@@ -4593,8 +5490,11 @@
       <c r="D297">
         <v>3</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E297" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>4</v>
       </c>
@@ -4607,8 +5507,11 @@
       <c r="D298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E298" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>4</v>
       </c>
@@ -4621,8 +5524,11 @@
       <c r="D299">
         <v>3</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E299" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>5</v>
       </c>
@@ -4635,8 +5541,11 @@
       <c r="D300">
         <v>5</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E300" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>5</v>
       </c>
@@ -4649,8 +5558,11 @@
       <c r="D301">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E301" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>6</v>
       </c>
@@ -4663,8 +5575,11 @@
       <c r="D302">
         <v>2</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E302" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>6</v>
       </c>
@@ -4677,8 +5592,11 @@
       <c r="D303">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E303" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>7</v>
       </c>
@@ -4691,8 +5609,11 @@
       <c r="D304">
         <v>2</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E304" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>7</v>
       </c>
@@ -4705,8 +5626,11 @@
       <c r="D305">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E305" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>8</v>
       </c>
@@ -4719,8 +5643,11 @@
       <c r="D306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E306" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>8</v>
       </c>
@@ -4733,8 +5660,11 @@
       <c r="D307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E307" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>9</v>
       </c>
@@ -4747,8 +5677,11 @@
       <c r="D308">
         <v>5</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E308" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>9</v>
       </c>
@@ -4761,8 +5694,11 @@
       <c r="D309">
         <v>3</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E309" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>10</v>
       </c>
@@ -4775,8 +5711,11 @@
       <c r="D310">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E310" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>10</v>
       </c>
@@ -4789,8 +5728,11 @@
       <c r="D311">
         <v>2</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E311" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>11</v>
       </c>
@@ -4803,8 +5745,11 @@
       <c r="D312">
         <v>5</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E312" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>11</v>
       </c>
@@ -4817,8 +5762,11 @@
       <c r="D313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E313" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>12</v>
       </c>
@@ -4831,8 +5779,11 @@
       <c r="D314">
         <v>6</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E314" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>12</v>
       </c>
@@ -4845,8 +5796,11 @@
       <c r="D315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E315" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>13</v>
       </c>
@@ -4859,8 +5813,11 @@
       <c r="D316">
         <v>4</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E316" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>13</v>
       </c>
@@ -4873,8 +5830,11 @@
       <c r="D317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E317" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>14</v>
       </c>
@@ -4887,8 +5847,11 @@
       <c r="D318">
         <v>2</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E318" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>14</v>
       </c>
@@ -4901,8 +5864,11 @@
       <c r="D319">
         <v>4</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E319" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>15</v>
       </c>
@@ -4915,8 +5881,11 @@
       <c r="D320">
         <v>4</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E320" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>1</v>
       </c>
@@ -4929,8 +5898,11 @@
       <c r="D321">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E321" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>1</v>
       </c>
@@ -4943,8 +5915,11 @@
       <c r="D322">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E322" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2</v>
       </c>
@@ -4957,8 +5932,11 @@
       <c r="D323">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E323" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2</v>
       </c>
@@ -4971,8 +5949,11 @@
       <c r="D324">
         <v>3</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E324" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>3</v>
       </c>
@@ -4985,8 +5966,11 @@
       <c r="D325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E325" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>3</v>
       </c>
@@ -4999,8 +5983,11 @@
       <c r="D326">
         <v>4</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E326" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>4</v>
       </c>
@@ -5013,8 +6000,11 @@
       <c r="D327">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E327" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>4</v>
       </c>
@@ -5027,8 +6017,11 @@
       <c r="D328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E328" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>5</v>
       </c>
@@ -5041,8 +6034,11 @@
       <c r="D329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E329" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>5</v>
       </c>
@@ -5055,8 +6051,11 @@
       <c r="D330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E330" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>6</v>
       </c>
@@ -5069,8 +6068,11 @@
       <c r="D331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E331" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>6</v>
       </c>
@@ -5083,8 +6085,11 @@
       <c r="D332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E332" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>7</v>
       </c>
@@ -5097,8 +6102,11 @@
       <c r="D333">
         <v>2</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E333" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>7</v>
       </c>
@@ -5111,8 +6119,11 @@
       <c r="D334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E334" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>8</v>
       </c>
@@ -5125,8 +6136,11 @@
       <c r="D335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E335" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>8</v>
       </c>
@@ -5139,8 +6153,11 @@
       <c r="D336">
         <v>4</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E336" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>9</v>
       </c>
@@ -5154,8 +6171,11 @@
         <f>-D3381</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E337" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>9</v>
       </c>
@@ -5168,8 +6188,11 @@
       <c r="D338">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E338" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>10</v>
       </c>
@@ -5182,8 +6205,11 @@
       <c r="D339">
         <v>2</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E339" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>10</v>
       </c>
@@ -5196,8 +6222,11 @@
       <c r="D340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E340" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>11</v>
       </c>
@@ -5210,8 +6239,11 @@
       <c r="D341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E341" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>11</v>
       </c>
@@ -5224,8 +6256,11 @@
       <c r="D342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E342" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>12</v>
       </c>
@@ -5238,8 +6273,11 @@
       <c r="D343">
         <v>2</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E343" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>12</v>
       </c>
@@ -5252,8 +6290,11 @@
       <c r="D344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E344" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>13</v>
       </c>
@@ -5266,8 +6307,11 @@
       <c r="D345">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E345" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>13</v>
       </c>
@@ -5280,8 +6324,11 @@
       <c r="D346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E346" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>14</v>
       </c>
@@ -5294,8 +6341,11 @@
       <c r="D347">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E347" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>14</v>
       </c>
@@ -5308,8 +6358,11 @@
       <c r="D348">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E348" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>15</v>
       </c>
@@ -5322,8 +6375,11 @@
       <c r="D349">
         <v>4</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E349" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>1</v>
       </c>
@@ -5336,8 +6392,11 @@
       <c r="D350">
         <v>2</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E350" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>1</v>
       </c>
@@ -5350,8 +6409,11 @@
       <c r="D351">
         <v>6</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E351" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>2</v>
       </c>
@@ -5364,8 +6426,11 @@
       <c r="D352">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E352" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>2</v>
       </c>
@@ -5378,8 +6443,11 @@
       <c r="D353">
         <v>4</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E353" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>3</v>
       </c>
@@ -5392,8 +6460,11 @@
       <c r="D354">
         <v>2</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E354" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>3</v>
       </c>
@@ -5406,8 +6477,11 @@
       <c r="D355">
         <v>3</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E355" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>4</v>
       </c>
@@ -5420,8 +6494,11 @@
       <c r="D356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E356" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>4</v>
       </c>
@@ -5434,8 +6511,11 @@
       <c r="D357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E357" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>5</v>
       </c>
@@ -5448,8 +6528,11 @@
       <c r="D358">
         <v>4</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E358" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>5</v>
       </c>
@@ -5462,8 +6545,11 @@
       <c r="D359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E359" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>6</v>
       </c>
@@ -5476,8 +6562,11 @@
       <c r="D360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E360" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>6</v>
       </c>
@@ -5490,8 +6579,11 @@
       <c r="D361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E361" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>7</v>
       </c>
@@ -5504,8 +6596,11 @@
       <c r="D362">
         <v>4</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E362" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>7</v>
       </c>
@@ -5518,8 +6613,11 @@
       <c r="D363">
         <v>2</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E363" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>8</v>
       </c>
@@ -5532,8 +6630,11 @@
       <c r="D364">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E364" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>8</v>
       </c>
@@ -5546,8 +6647,11 @@
       <c r="D365">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E365" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>9</v>
       </c>
@@ -5560,8 +6664,11 @@
       <c r="D366">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E366" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>9</v>
       </c>
@@ -5574,8 +6681,11 @@
       <c r="D367">
         <v>1</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E367" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>10</v>
       </c>
@@ -5588,8 +6698,11 @@
       <c r="D368">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E368" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>10</v>
       </c>
@@ -5602,8 +6715,11 @@
       <c r="D369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E369" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>11</v>
       </c>
@@ -5616,8 +6732,11 @@
       <c r="D370">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E370" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>11</v>
       </c>
@@ -5630,8 +6749,11 @@
       <c r="D371">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E371" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>12</v>
       </c>
@@ -5644,8 +6766,11 @@
       <c r="D372">
         <v>5</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E372" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>12</v>
       </c>
@@ -5658,8 +6783,11 @@
       <c r="D373">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E373" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>13</v>
       </c>
@@ -5672,8 +6800,11 @@
       <c r="D374">
         <v>2</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E374" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>13</v>
       </c>
@@ -5686,8 +6817,11 @@
       <c r="D375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E375" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>14</v>
       </c>
@@ -5700,8 +6834,11 @@
       <c r="D376">
         <v>3</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E376" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>14</v>
       </c>
@@ -5714,8 +6851,11 @@
       <c r="D377">
         <v>6</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E377" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>15</v>
       </c>
@@ -5728,8 +6868,11 @@
       <c r="D378">
         <v>4</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E378" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>1</v>
       </c>
@@ -5742,8 +6885,11 @@
       <c r="D379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E379" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>1</v>
       </c>
@@ -5756,8 +6902,11 @@
       <c r="D380">
         <v>6</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E380" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>2</v>
       </c>
@@ -5770,8 +6919,11 @@
       <c r="D381">
         <v>3</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E381" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>2</v>
       </c>
@@ -5784,8 +6936,11 @@
       <c r="D382">
         <v>3</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E382" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>3</v>
       </c>
@@ -5798,8 +6953,11 @@
       <c r="D383">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E383" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>3</v>
       </c>
@@ -5812,8 +6970,11 @@
       <c r="D384">
         <v>3</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E384" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>4</v>
       </c>
@@ -5826,8 +6987,11 @@
       <c r="D385">
         <v>4</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E385" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>4</v>
       </c>
@@ -5840,8 +7004,11 @@
       <c r="D386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E386" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>5</v>
       </c>
@@ -5854,8 +7021,11 @@
       <c r="D387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E387" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>5</v>
       </c>
@@ -5868,8 +7038,11 @@
       <c r="D388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E388" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>6</v>
       </c>
@@ -5882,8 +7055,11 @@
       <c r="D389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E389" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>6</v>
       </c>
@@ -5896,8 +7072,11 @@
       <c r="D390">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E390" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>7</v>
       </c>
@@ -5910,8 +7089,11 @@
       <c r="D391">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E391" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>7</v>
       </c>
@@ -5924,8 +7106,11 @@
       <c r="D392">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E392" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>8</v>
       </c>
@@ -5938,8 +7123,11 @@
       <c r="D393">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E393" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>8</v>
       </c>
@@ -5952,8 +7140,11 @@
       <c r="D394">
         <v>1</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E394" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>9</v>
       </c>
@@ -5966,8 +7157,11 @@
       <c r="D395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E395" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>9</v>
       </c>
@@ -5980,8 +7174,11 @@
       <c r="D396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E396" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>10</v>
       </c>
@@ -5994,8 +7191,11 @@
       <c r="D397">
         <v>1</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E397" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>10</v>
       </c>
@@ -6008,8 +7208,11 @@
       <c r="D398">
         <v>1</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E398" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>11</v>
       </c>
@@ -6022,8 +7225,11 @@
       <c r="D399">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E399" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>11</v>
       </c>
@@ -6036,8 +7242,11 @@
       <c r="D400">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E400" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>12</v>
       </c>
@@ -6050,8 +7259,11 @@
       <c r="D401">
         <v>2</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E401" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>12</v>
       </c>
@@ -6064,8 +7276,11 @@
       <c r="D402">
         <v>1</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E402" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>13</v>
       </c>
@@ -6078,8 +7293,11 @@
       <c r="D403">
         <v>1</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E403" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>13</v>
       </c>
@@ -6092,8 +7310,11 @@
       <c r="D404">
         <v>1</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E404" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>14</v>
       </c>
@@ -6106,8 +7327,11 @@
       <c r="D405">
         <v>2</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E405" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>14</v>
       </c>
@@ -6120,8 +7344,11 @@
       <c r="D406">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E406" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>15</v>
       </c>
@@ -6134,8 +7361,11 @@
       <c r="D407">
         <v>4</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E407" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>1</v>
       </c>
@@ -6148,8 +7378,11 @@
       <c r="D408">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E408" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>1</v>
       </c>
@@ -6162,8 +7395,11 @@
       <c r="D409">
         <v>5</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E409" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>2</v>
       </c>
@@ -6176,8 +7412,11 @@
       <c r="D410">
         <v>4</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E410" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>2</v>
       </c>
@@ -6190,8 +7429,11 @@
       <c r="D411">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E411" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>3</v>
       </c>
@@ -6204,8 +7446,11 @@
       <c r="D412">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E412" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>3</v>
       </c>
@@ -6218,8 +7463,11 @@
       <c r="D413">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E413" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>4</v>
       </c>
@@ -6232,8 +7480,11 @@
       <c r="D414">
         <v>1</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E414" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>4</v>
       </c>
@@ -6246,8 +7497,11 @@
       <c r="D415">
         <v>1</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E415" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>5</v>
       </c>
@@ -6260,8 +7514,11 @@
       <c r="D416">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E416" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>5</v>
       </c>
@@ -6274,8 +7531,11 @@
       <c r="D417">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E417" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>6</v>
       </c>
@@ -6288,8 +7548,11 @@
       <c r="D418">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E418" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>6</v>
       </c>
@@ -6302,8 +7565,11 @@
       <c r="D419">
         <v>1</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E419" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>7</v>
       </c>
@@ -6316,8 +7582,11 @@
       <c r="D420">
         <v>1</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E420" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>7</v>
       </c>
@@ -6330,8 +7599,11 @@
       <c r="D421">
         <v>1</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E421" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>8</v>
       </c>
@@ -6344,8 +7616,11 @@
       <c r="D422">
         <v>1</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E422" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>8</v>
       </c>
@@ -6358,8 +7633,11 @@
       <c r="D423">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E423" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>9</v>
       </c>
@@ -6372,8 +7650,11 @@
       <c r="D424">
         <v>3</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E424" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>9</v>
       </c>
@@ -6386,8 +7667,11 @@
       <c r="D425">
         <v>2</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E425" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>10</v>
       </c>
@@ -6400,8 +7684,11 @@
       <c r="D426">
         <v>2</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E426" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>10</v>
       </c>
@@ -6414,8 +7701,11 @@
       <c r="D427">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E427" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>11</v>
       </c>
@@ -6428,8 +7718,11 @@
       <c r="D428">
         <v>1</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E428" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>11</v>
       </c>
@@ -6442,8 +7735,11 @@
       <c r="D429">
         <v>1</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E429" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>12</v>
       </c>
@@ -6456,8 +7752,11 @@
       <c r="D430">
         <v>2</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E430" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>12</v>
       </c>
@@ -6470,8 +7769,11 @@
       <c r="D431">
         <v>1</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E431" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>13</v>
       </c>
@@ -6484,8 +7786,11 @@
       <c r="D432">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E432" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>13</v>
       </c>
@@ -6498,8 +7803,11 @@
       <c r="D433">
         <v>1</v>
       </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E433" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>14</v>
       </c>
@@ -6512,8 +7820,11 @@
       <c r="D434">
         <v>1</v>
       </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E434" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>14</v>
       </c>
@@ -6526,8 +7837,11 @@
       <c r="D435">
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E435" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>15</v>
       </c>
@@ -6540,8 +7854,11 @@
       <c r="D436">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E436" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>1</v>
       </c>
@@ -6554,8 +7871,11 @@
       <c r="D437">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E437" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>1</v>
       </c>
@@ -6568,8 +7888,11 @@
       <c r="D438">
         <v>3</v>
       </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E438" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>2</v>
       </c>
@@ -6582,8 +7905,11 @@
       <c r="D439">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E439" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>2</v>
       </c>
@@ -6596,8 +7922,11 @@
       <c r="D440">
         <v>1</v>
       </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E440" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>3</v>
       </c>
@@ -6610,8 +7939,11 @@
       <c r="D441">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E441" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>3</v>
       </c>
@@ -6624,8 +7956,11 @@
       <c r="D442">
         <v>2</v>
       </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E442" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>4</v>
       </c>
@@ -6638,8 +7973,11 @@
       <c r="D443">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E443" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>4</v>
       </c>
@@ -6652,8 +7990,11 @@
       <c r="D444">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E444" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>5</v>
       </c>
@@ -6666,8 +8007,11 @@
       <c r="D445">
         <v>1</v>
       </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E445" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>5</v>
       </c>
@@ -6680,8 +8024,11 @@
       <c r="D446">
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E446" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>6</v>
       </c>
@@ -6694,8 +8041,11 @@
       <c r="D447">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E447" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>6</v>
       </c>
@@ -6708,8 +8058,11 @@
       <c r="D448">
         <v>1</v>
       </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E448" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>7</v>
       </c>
@@ -6722,8 +8075,11 @@
       <c r="D449">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E449" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>7</v>
       </c>
@@ -6736,8 +8092,11 @@
       <c r="D450">
         <v>0</v>
       </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E450" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>8</v>
       </c>
@@ -6750,8 +8109,11 @@
       <c r="D451">
         <v>1</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E451" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>8</v>
       </c>
@@ -6764,8 +8126,11 @@
       <c r="D452">
         <v>1</v>
       </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E452" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>9</v>
       </c>
@@ -6778,8 +8143,11 @@
       <c r="D453">
         <v>1</v>
       </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E453" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>9</v>
       </c>
@@ -6792,8 +8160,11 @@
       <c r="D454">
         <v>1</v>
       </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E454" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>10</v>
       </c>
@@ -6806,8 +8177,11 @@
       <c r="D455">
         <v>0</v>
       </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E455" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>10</v>
       </c>
@@ -6820,8 +8194,11 @@
       <c r="D456">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E456" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>11</v>
       </c>
@@ -6834,8 +8211,11 @@
       <c r="D457">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E457" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>11</v>
       </c>
@@ -6848,8 +8228,11 @@
       <c r="D458">
         <v>1</v>
       </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E458" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>12</v>
       </c>
@@ -6862,8 +8245,11 @@
       <c r="D459">
         <v>1</v>
       </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E459" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>12</v>
       </c>
@@ -6876,8 +8262,11 @@
       <c r="D460">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E460" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>13</v>
       </c>
@@ -6890,8 +8279,11 @@
       <c r="D461">
         <v>1</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E461" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>13</v>
       </c>
@@ -6904,8 +8296,11 @@
       <c r="D462">
         <v>1</v>
       </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E462" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>14</v>
       </c>
@@ -6918,8 +8313,11 @@
       <c r="D463">
         <v>1</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E463" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>14</v>
       </c>
@@ -6932,8 +8330,11 @@
       <c r="D464">
         <v>1</v>
       </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E464" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>15</v>
       </c>
@@ -6946,8 +8347,11 @@
       <c r="D465">
         <v>1</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E465" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>1</v>
       </c>
@@ -6960,8 +8364,11 @@
       <c r="D466">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E466" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>1</v>
       </c>
@@ -6974,8 +8381,11 @@
       <c r="D467">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E467" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>2</v>
       </c>
@@ -6988,8 +8398,11 @@
       <c r="D468">
         <v>2</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E468" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>2</v>
       </c>
@@ -7002,8 +8415,11 @@
       <c r="D469">
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E469" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>3</v>
       </c>
@@ -7016,8 +8432,11 @@
       <c r="D470">
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E470" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>3</v>
       </c>
@@ -7030,8 +8449,11 @@
       <c r="D471">
         <v>0</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E471" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>4</v>
       </c>
@@ -7044,8 +8466,11 @@
       <c r="D472">
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E472" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>4</v>
       </c>
@@ -7058,8 +8483,11 @@
       <c r="D473">
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E473" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>5</v>
       </c>
@@ -7072,8 +8500,11 @@
       <c r="D474">
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E474" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>5</v>
       </c>
@@ -7086,8 +8517,11 @@
       <c r="D475">
         <v>0</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E475" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>6</v>
       </c>
@@ -7100,8 +8534,11 @@
       <c r="D476">
         <v>2</v>
       </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E476" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>6</v>
       </c>
@@ -7114,8 +8551,11 @@
       <c r="D477">
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E477" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>7</v>
       </c>
@@ -7128,8 +8568,11 @@
       <c r="D478">
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E478" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>7</v>
       </c>
@@ -7142,8 +8585,11 @@
       <c r="D479">
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E479" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>8</v>
       </c>
@@ -7156,8 +8602,11 @@
       <c r="D480">
         <v>1</v>
       </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E480" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>8</v>
       </c>
@@ -7170,8 +8619,11 @@
       <c r="D481">
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E481" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>9</v>
       </c>
@@ -7184,8 +8636,11 @@
       <c r="D482">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E482" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>9</v>
       </c>
@@ -7198,8 +8653,11 @@
       <c r="D483">
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E483" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>10</v>
       </c>
@@ -7212,8 +8670,11 @@
       <c r="D484">
         <v>0</v>
       </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E484" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>10</v>
       </c>
@@ -7226,8 +8687,11 @@
       <c r="D485">
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E485" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>11</v>
       </c>
@@ -7240,8 +8704,11 @@
       <c r="D486">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E486" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>11</v>
       </c>
@@ -7254,8 +8721,11 @@
       <c r="D487">
         <v>1</v>
       </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E487" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>12</v>
       </c>
@@ -7268,8 +8738,11 @@
       <c r="D488">
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E488" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>12</v>
       </c>
@@ -7282,8 +8755,11 @@
       <c r="D489">
         <v>0</v>
       </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E489" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>13</v>
       </c>
@@ -7296,8 +8772,11 @@
       <c r="D490">
         <v>0</v>
       </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E490" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>13</v>
       </c>
@@ -7310,8 +8789,11 @@
       <c r="D491">
         <v>1</v>
       </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E491" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>14</v>
       </c>
@@ -7324,8 +8806,11 @@
       <c r="D492">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E492" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>14</v>
       </c>
@@ -7338,8 +8823,11 @@
       <c r="D493">
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E493" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>15</v>
       </c>
@@ -7351,6 +8839,9 @@
       </c>
       <c r="D494">
         <v>0</v>
+      </c>
+      <c r="E494" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
